--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
   <si>
     <t>_Id</t>
   </si>
@@ -614,9 +614,6 @@
   </si>
   <si>
     <t>Visiteuses - FVP - Responsable</t>
-  </si>
-  <si>
-    <t>KT 2003-2004, Pasteurs, Diacre, Secrétaire</t>
   </si>
 </sst>
 </file>
@@ -660,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -681,6 +678,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -987,7 +987,7 @@
   <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,8 +1016,8 @@
       <c r="A2" s="2">
         <v>4030000211</v>
       </c>
-      <c r="B2" s="3">
-        <v>4030000000</v>
+      <c r="B2" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C2" s="4">
         <v>4030010002</v>
@@ -1036,8 +1036,8 @@
       <c r="A3" s="2">
         <v>4030000245</v>
       </c>
-      <c r="B3" s="3">
-        <v>4030000000</v>
+      <c r="B3" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C3" s="4">
         <v>4030010003</v>
@@ -1056,8 +1056,8 @@
       <c r="A4" s="2">
         <v>4030000228</v>
       </c>
-      <c r="B4" s="3">
-        <v>4030000000</v>
+      <c r="B4" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C4" s="4">
         <v>4030010004</v>
@@ -1076,8 +1076,8 @@
       <c r="A5" s="2">
         <v>4030000244</v>
       </c>
-      <c r="B5" s="3">
-        <v>4030000000</v>
+      <c r="B5" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C5" s="4">
         <v>4030010005</v>
@@ -1096,8 +1096,8 @@
       <c r="A6" s="2">
         <v>4030000007</v>
       </c>
-      <c r="B6" s="3">
-        <v>4030000000</v>
+      <c r="B6" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C6" s="4">
         <v>4030010008</v>
@@ -1116,8 +1116,8 @@
       <c r="A7" s="2">
         <v>4030000186</v>
       </c>
-      <c r="B7" s="3">
-        <v>4030000000</v>
+      <c r="B7" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C7" s="4">
         <v>4030010013</v>
@@ -1136,8 +1136,8 @@
       <c r="A8" s="2">
         <v>4030000192</v>
       </c>
-      <c r="B8" s="3">
-        <v>4030000000</v>
+      <c r="B8" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C8" s="4">
         <v>4030010014</v>
@@ -1156,8 +1156,8 @@
       <c r="A9" s="2">
         <v>4030000014</v>
       </c>
-      <c r="B9" s="3">
-        <v>4030000000</v>
+      <c r="B9" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C9" s="4">
         <v>4030010015</v>
@@ -1176,8 +1176,8 @@
       <c r="A10" s="2">
         <v>4030000185</v>
       </c>
-      <c r="B10" s="3">
-        <v>4030000000</v>
+      <c r="B10" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C10" s="4">
         <v>4030010016</v>
@@ -1196,8 +1196,8 @@
       <c r="A11" s="2">
         <v>4030000229</v>
       </c>
-      <c r="B11" s="3">
-        <v>4030000000</v>
+      <c r="B11" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C11" s="4">
         <v>4030010018</v>
@@ -1216,8 +1216,8 @@
       <c r="A12" s="2">
         <v>4030000212</v>
       </c>
-      <c r="B12" s="3">
-        <v>4030000000</v>
+      <c r="B12" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C12" s="4">
         <v>4030010020</v>
@@ -1236,8 +1236,8 @@
       <c r="A13" s="2">
         <v>4030000231</v>
       </c>
-      <c r="B13" s="3">
-        <v>4030000000</v>
+      <c r="B13" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C13" s="4">
         <v>4030010021</v>
@@ -1256,8 +1256,8 @@
       <c r="A14" s="2">
         <v>4030000189</v>
       </c>
-      <c r="B14" s="3">
-        <v>4030000000</v>
+      <c r="B14" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C14" s="4">
         <v>4030010022</v>
@@ -1276,8 +1276,8 @@
       <c r="A15" s="2">
         <v>4030000322</v>
       </c>
-      <c r="B15" s="3">
-        <v>4030000000</v>
+      <c r="B15" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C15" s="4">
         <v>4030010029</v>
@@ -1296,8 +1296,8 @@
       <c r="A16" s="2">
         <v>4030000340</v>
       </c>
-      <c r="B16" s="3">
-        <v>4030000000</v>
+      <c r="B16" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C16" s="4">
         <v>4030010031</v>
@@ -1316,8 +1316,8 @@
       <c r="A17" s="2">
         <v>4030000028</v>
       </c>
-      <c r="B17" s="3">
-        <v>4030000000</v>
+      <c r="B17" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C17" s="4">
         <v>4030010033</v>
@@ -1336,8 +1336,8 @@
       <c r="A18" s="2">
         <v>4030000116</v>
       </c>
-      <c r="B18" s="3">
-        <v>4030000000</v>
+      <c r="B18" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C18" s="4">
         <v>4030010034</v>
@@ -1356,8 +1356,8 @@
       <c r="A19" s="2">
         <v>4030000117</v>
       </c>
-      <c r="B19" s="3">
-        <v>4030000000</v>
+      <c r="B19" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C19" s="4">
         <v>4030010035</v>
@@ -1376,8 +1376,8 @@
       <c r="A20" s="2">
         <v>4030000118</v>
       </c>
-      <c r="B20" s="3">
-        <v>4030000000</v>
+      <c r="B20" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C20" s="4">
         <v>4030010036</v>
@@ -1396,8 +1396,8 @@
       <c r="A21" s="2">
         <v>4030000119</v>
       </c>
-      <c r="B21" s="3">
-        <v>4030000000</v>
+      <c r="B21" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C21" s="4">
         <v>4030010037</v>
@@ -1416,8 +1416,8 @@
       <c r="A22" s="2">
         <v>4030000121</v>
       </c>
-      <c r="B22" s="3">
-        <v>4030000000</v>
+      <c r="B22" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C22" s="4">
         <v>4030010038</v>
@@ -1436,8 +1436,8 @@
       <c r="A23" s="2">
         <v>4030000133</v>
       </c>
-      <c r="B23" s="3">
-        <v>4030000000</v>
+      <c r="B23" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C23" s="4">
         <v>4030010039</v>
@@ -1456,8 +1456,8 @@
       <c r="A24" s="2">
         <v>4030000120</v>
       </c>
-      <c r="B24" s="3">
-        <v>4030000000</v>
+      <c r="B24" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C24" s="4">
         <v>4030010042</v>
@@ -1476,8 +1476,8 @@
       <c r="A25" s="2">
         <v>4030000218</v>
       </c>
-      <c r="B25" s="3">
-        <v>4030000000</v>
+      <c r="B25" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C25" s="4">
         <v>4030010043</v>
@@ -1496,8 +1496,8 @@
       <c r="A26" s="2">
         <v>4030000109</v>
       </c>
-      <c r="B26" s="3">
-        <v>4030000000</v>
+      <c r="B26" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C26" s="4">
         <v>4030010045</v>
@@ -1516,8 +1516,8 @@
       <c r="A27" s="2">
         <v>4030000127</v>
       </c>
-      <c r="B27" s="3">
-        <v>4030000000</v>
+      <c r="B27" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C27" s="4">
         <v>4030010046</v>
@@ -1536,8 +1536,8 @@
       <c r="A28" s="2">
         <v>4030000107</v>
       </c>
-      <c r="B28" s="3">
-        <v>4030000000</v>
+      <c r="B28" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C28" s="4">
         <v>4030010049</v>
@@ -1556,8 +1556,8 @@
       <c r="A29" s="2">
         <v>4030000132</v>
       </c>
-      <c r="B29" s="3">
-        <v>4030000000</v>
+      <c r="B29" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C29" s="4">
         <v>4030010050</v>
@@ -1576,8 +1576,8 @@
       <c r="A30" s="2">
         <v>4030000110</v>
       </c>
-      <c r="B30" s="3">
-        <v>4030000000</v>
+      <c r="B30" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C30" s="4">
         <v>4030010051</v>
@@ -1596,8 +1596,8 @@
       <c r="A31" s="2">
         <v>4030000102</v>
       </c>
-      <c r="B31" s="3">
-        <v>4030000000</v>
+      <c r="B31" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C31" s="4">
         <v>4030010052</v>
@@ -1616,8 +1616,8 @@
       <c r="A32" s="2">
         <v>4030000033</v>
       </c>
-      <c r="B32" s="3">
-        <v>4030000000</v>
+      <c r="B32" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C32" s="4">
         <v>4030010053</v>
@@ -1636,8 +1636,8 @@
       <c r="A33" s="2">
         <v>4030000034</v>
       </c>
-      <c r="B33" s="3">
-        <v>4030000000</v>
+      <c r="B33" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C33" s="4">
         <v>4030010054</v>
@@ -1656,8 +1656,8 @@
       <c r="A34" s="2">
         <v>4030000125</v>
       </c>
-      <c r="B34" s="3">
-        <v>4030000000</v>
+      <c r="B34" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C34" s="4">
         <v>4030010055</v>
@@ -1676,8 +1676,8 @@
       <c r="A35" s="2">
         <v>4030000254</v>
       </c>
-      <c r="B35" s="3">
-        <v>4030000000</v>
+      <c r="B35" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C35" s="4">
         <v>4030010056</v>
@@ -1696,8 +1696,8 @@
       <c r="A36" s="2">
         <v>4030000126</v>
       </c>
-      <c r="B36" s="3">
-        <v>4030000000</v>
+      <c r="B36" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C36" s="4">
         <v>4030010057</v>
@@ -1716,8 +1716,8 @@
       <c r="A37" s="2">
         <v>4030000105</v>
       </c>
-      <c r="B37" s="3">
-        <v>4030000000</v>
+      <c r="B37" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C37" s="4">
         <v>4030010058</v>
@@ -1736,8 +1736,8 @@
       <c r="A38" s="2">
         <v>4030000036</v>
       </c>
-      <c r="B38" s="3">
-        <v>4030000000</v>
+      <c r="B38" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C38" s="4">
         <v>4030010061</v>
@@ -1756,8 +1756,8 @@
       <c r="A39" s="2">
         <v>4030000037</v>
       </c>
-      <c r="B39" s="3">
-        <v>4030000000</v>
+      <c r="B39" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C39" s="4">
         <v>4030010062</v>
@@ -1776,8 +1776,8 @@
       <c r="A40" s="2">
         <v>4030000038</v>
       </c>
-      <c r="B40" s="3">
-        <v>4030000000</v>
+      <c r="B40" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C40" s="4">
         <v>4030010063</v>
@@ -1796,8 +1796,8 @@
       <c r="A41" s="2">
         <v>4030000106</v>
       </c>
-      <c r="B41" s="3">
-        <v>4030000000</v>
+      <c r="B41" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C41" s="4">
         <v>4030010064</v>
@@ -1816,8 +1816,8 @@
       <c r="A42" s="2">
         <v>4030000128</v>
       </c>
-      <c r="B42" s="3">
-        <v>4030000000</v>
+      <c r="B42" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C42" s="4">
         <v>4030010065</v>
@@ -1836,8 +1836,8 @@
       <c r="A43" s="2">
         <v>4030000135</v>
       </c>
-      <c r="B43" s="3">
-        <v>4030000000</v>
+      <c r="B43" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C43" s="4">
         <v>4030010066</v>
@@ -1856,8 +1856,8 @@
       <c r="A44" s="2">
         <v>4030000039</v>
       </c>
-      <c r="B44" s="3">
-        <v>4030000000</v>
+      <c r="B44" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C44" s="4">
         <v>4030010067</v>
@@ -1876,8 +1876,8 @@
       <c r="A45" s="2">
         <v>4030000040</v>
       </c>
-      <c r="B45" s="3">
-        <v>4030000000</v>
+      <c r="B45" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C45" s="4">
         <v>4030010069</v>
@@ -1896,8 +1896,8 @@
       <c r="A46" s="2">
         <v>4030000041</v>
       </c>
-      <c r="B46" s="3">
-        <v>4030000000</v>
+      <c r="B46" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C46" s="4">
         <v>4030010070</v>
@@ -1916,8 +1916,8 @@
       <c r="A47" s="2">
         <v>4030000276</v>
       </c>
-      <c r="B47" s="3">
-        <v>4030000000</v>
+      <c r="B47" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C47" s="4">
         <v>4030010072</v>
@@ -1936,8 +1936,8 @@
       <c r="A48" s="2">
         <v>4030000043</v>
       </c>
-      <c r="B48" s="3">
-        <v>4030000000</v>
+      <c r="B48" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C48" s="4">
         <v>4030010073</v>
@@ -1956,8 +1956,8 @@
       <c r="A49" s="2">
         <v>4030000044</v>
       </c>
-      <c r="B49" s="3">
-        <v>4030000000</v>
+      <c r="B49" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C49" s="4">
         <v>4030010074</v>
@@ -1976,8 +1976,8 @@
       <c r="A50" s="2">
         <v>4030000227</v>
       </c>
-      <c r="B50" s="3">
-        <v>4030000000</v>
+      <c r="B50" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C50" s="4">
         <v>4030010075</v>
@@ -1996,8 +1996,8 @@
       <c r="A51" s="2">
         <v>4030000138</v>
       </c>
-      <c r="B51" s="3">
-        <v>4030000000</v>
+      <c r="B51" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C51" s="4">
         <v>4030010076</v>
@@ -2016,8 +2016,8 @@
       <c r="A52" s="2">
         <v>4030000139</v>
       </c>
-      <c r="B52" s="3">
-        <v>4030000000</v>
+      <c r="B52" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C52" s="4">
         <v>4030010077</v>
@@ -2036,8 +2036,8 @@
       <c r="A53" s="2">
         <v>4030000140</v>
       </c>
-      <c r="B53" s="3">
-        <v>4030000000</v>
+      <c r="B53" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C53" s="4">
         <v>4030010078</v>
@@ -2056,8 +2056,8 @@
       <c r="A54" s="2">
         <v>4030000361</v>
       </c>
-      <c r="B54" s="3">
-        <v>4030000000</v>
+      <c r="B54" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C54" s="4">
         <v>4030010080</v>
@@ -2076,8 +2076,8 @@
       <c r="A55" s="2">
         <v>4030000162</v>
       </c>
-      <c r="B55" s="3">
-        <v>4030000000</v>
+      <c r="B55" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C55" s="4">
         <v>4030010082</v>
@@ -2096,8 +2096,8 @@
       <c r="A56" s="2">
         <v>4030000049</v>
       </c>
-      <c r="B56" s="3">
-        <v>4030000000</v>
+      <c r="B56" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C56" s="4">
         <v>4030010083</v>
@@ -2116,8 +2116,8 @@
       <c r="A57" s="2">
         <v>4030000174</v>
       </c>
-      <c r="B57" s="3">
-        <v>4030000000</v>
+      <c r="B57" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C57" s="4">
         <v>4030010086</v>
@@ -2136,8 +2136,8 @@
       <c r="A58" s="2">
         <v>4030000175</v>
       </c>
-      <c r="B58" s="3">
-        <v>4030000000</v>
+      <c r="B58" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C58" s="4">
         <v>4030010087</v>
@@ -2156,8 +2156,8 @@
       <c r="A59" s="2">
         <v>4030000176</v>
       </c>
-      <c r="B59" s="3">
-        <v>4030000000</v>
+      <c r="B59" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C59" s="4">
         <v>4030010088</v>
@@ -2176,8 +2176,8 @@
       <c r="A60" s="2">
         <v>4030000177</v>
       </c>
-      <c r="B60" s="3">
-        <v>4030000000</v>
+      <c r="B60" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C60" s="4">
         <v>4030010090</v>
@@ -2196,8 +2196,8 @@
       <c r="A61" s="2">
         <v>4030000178</v>
       </c>
-      <c r="B61" s="3">
-        <v>4030000000</v>
+      <c r="B61" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C61" s="4">
         <v>4030010091</v>
@@ -2216,8 +2216,8 @@
       <c r="A62" s="2">
         <v>4030000163</v>
       </c>
-      <c r="B62" s="3">
-        <v>4030000000</v>
+      <c r="B62" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C62" s="4">
         <v>4030010092</v>
@@ -2236,8 +2236,8 @@
       <c r="A63" s="2">
         <v>4030000180</v>
       </c>
-      <c r="B63" s="3">
-        <v>4030000000</v>
+      <c r="B63" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C63" s="4">
         <v>4030010094</v>
@@ -2256,8 +2256,8 @@
       <c r="A64" s="2">
         <v>4030000181</v>
       </c>
-      <c r="B64" s="3">
-        <v>4030000000</v>
+      <c r="B64" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C64" s="4">
         <v>4030010095</v>
@@ -2276,8 +2276,8 @@
       <c r="A65" s="2">
         <v>4030000182</v>
       </c>
-      <c r="B65" s="3">
-        <v>4030000000</v>
+      <c r="B65" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C65" s="4">
         <v>4030010096</v>
@@ -2296,8 +2296,8 @@
       <c r="A66" s="2">
         <v>4030000183</v>
       </c>
-      <c r="B66" s="3">
-        <v>4030000000</v>
+      <c r="B66" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C66" s="4">
         <v>4030010097</v>
@@ -2316,8 +2316,8 @@
       <c r="A67" s="2">
         <v>4030000064</v>
       </c>
-      <c r="B67" s="3">
-        <v>4030000000</v>
+      <c r="B67" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C67" s="4">
         <v>4030010098</v>
@@ -2336,8 +2336,8 @@
       <c r="A68" s="2">
         <v>4030000065</v>
       </c>
-      <c r="B68" s="3">
-        <v>4030000000</v>
+      <c r="B68" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C68" s="4">
         <v>4030010099</v>
@@ -2356,8 +2356,8 @@
       <c r="A69" s="2">
         <v>4030000209</v>
       </c>
-      <c r="B69" s="3">
-        <v>4030000000</v>
+      <c r="B69" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C69" s="4">
         <v>4030010100</v>
@@ -2376,8 +2376,8 @@
       <c r="A70" s="2">
         <v>4030000208</v>
       </c>
-      <c r="B70" s="3">
-        <v>4030000000</v>
+      <c r="B70" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C70" s="4">
         <v>4030010101</v>
@@ -2396,8 +2396,8 @@
       <c r="A71" s="2">
         <v>4030000069</v>
       </c>
-      <c r="B71" s="3">
-        <v>4030000000</v>
+      <c r="B71" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C71" s="4">
         <v>4030010103</v>
@@ -2416,8 +2416,8 @@
       <c r="A72" s="2">
         <v>4030000146</v>
       </c>
-      <c r="B72" s="3">
-        <v>4030000000</v>
+      <c r="B72" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C72" s="4">
         <v>4030010104</v>
@@ -2436,8 +2436,8 @@
       <c r="A73" s="2">
         <v>4030000230</v>
       </c>
-      <c r="B73" s="3">
-        <v>4030000000</v>
+      <c r="B73" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C73" s="4">
         <v>4030010105</v>
@@ -2456,8 +2456,8 @@
       <c r="A74" s="2">
         <v>4030000207</v>
       </c>
-      <c r="B74" s="3">
-        <v>4030000000</v>
+      <c r="B74" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C74" s="4">
         <v>4030010106</v>
@@ -2476,8 +2476,8 @@
       <c r="A75" s="2">
         <v>4030000142</v>
       </c>
-      <c r="B75" s="3">
-        <v>4030000000</v>
+      <c r="B75" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C75" s="4">
         <v>4030010107</v>
@@ -2496,8 +2496,8 @@
       <c r="A76" s="2">
         <v>4030000143</v>
       </c>
-      <c r="B76" s="3">
-        <v>4030000000</v>
+      <c r="B76" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C76" s="4">
         <v>4030010108</v>
@@ -2516,8 +2516,8 @@
       <c r="A77" s="2">
         <v>4030000145</v>
       </c>
-      <c r="B77" s="3">
-        <v>4030000000</v>
+      <c r="B77" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C77" s="4">
         <v>4030010109</v>
@@ -2536,8 +2536,8 @@
       <c r="A78" s="2">
         <v>4030000144</v>
       </c>
-      <c r="B78" s="3">
-        <v>4030000000</v>
+      <c r="B78" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C78" s="4">
         <v>4030010110</v>
@@ -2556,8 +2556,8 @@
       <c r="A79" s="2">
         <v>4030000141</v>
       </c>
-      <c r="B79" s="3">
-        <v>4030000000</v>
+      <c r="B79" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C79" s="4">
         <v>4030010111</v>
@@ -2576,8 +2576,8 @@
       <c r="A80" s="2">
         <v>4030000072</v>
       </c>
-      <c r="B80" s="3">
-        <v>4030000000</v>
+      <c r="B80" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C80" s="4">
         <v>4030010112</v>
@@ -2596,8 +2596,8 @@
       <c r="A81" s="2">
         <v>4030000073</v>
       </c>
-      <c r="B81" s="3">
-        <v>4030000000</v>
+      <c r="B81" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C81" s="4">
         <v>4030010113</v>
@@ -2616,8 +2616,8 @@
       <c r="A82" s="2">
         <v>4030000074</v>
       </c>
-      <c r="B82" s="3">
-        <v>4030000000</v>
+      <c r="B82" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C82" s="4">
         <v>4030010114</v>
@@ -2636,8 +2636,8 @@
       <c r="A83" s="2">
         <v>4030000159</v>
       </c>
-      <c r="B83" s="3">
-        <v>4030000000</v>
+      <c r="B83" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C83" s="4">
         <v>4030010116</v>
@@ -2656,8 +2656,8 @@
       <c r="A84" s="2">
         <v>4030000168</v>
       </c>
-      <c r="B84" s="3">
-        <v>4030000000</v>
+      <c r="B84" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C84" s="4">
         <v>4030010117</v>
@@ -2676,8 +2676,8 @@
       <c r="A85" s="2">
         <v>4030000078</v>
       </c>
-      <c r="B85" s="3">
-        <v>4030000000</v>
+      <c r="B85" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C85" s="4">
         <v>4030010118</v>
@@ -2696,8 +2696,8 @@
       <c r="A86" s="2">
         <v>4030000366</v>
       </c>
-      <c r="B86" s="3">
-        <v>4030000000</v>
+      <c r="B86" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C86" s="4">
         <v>4030010119</v>
@@ -2716,8 +2716,8 @@
       <c r="A87" s="2">
         <v>4030000170</v>
       </c>
-      <c r="B87" s="3">
-        <v>4030000000</v>
+      <c r="B87" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C87" s="4">
         <v>4030010120</v>
@@ -2736,8 +2736,8 @@
       <c r="A88" s="2">
         <v>4030000171</v>
       </c>
-      <c r="B88" s="3">
-        <v>4030000000</v>
+      <c r="B88" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C88" s="4">
         <v>4030010121</v>
@@ -2756,8 +2756,8 @@
       <c r="A89" s="2">
         <v>4030000172</v>
       </c>
-      <c r="B89" s="3">
-        <v>4030000000</v>
+      <c r="B89" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C89" s="4">
         <v>4030010122</v>
@@ -2776,8 +2776,8 @@
       <c r="A90" s="2">
         <v>4030000362</v>
       </c>
-      <c r="B90" s="3">
-        <v>4030000000</v>
+      <c r="B90" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C90" s="4">
         <v>4030010123</v>
@@ -2796,8 +2796,8 @@
       <c r="A91" s="2">
         <v>4030000161</v>
       </c>
-      <c r="B91" s="3">
-        <v>4030000000</v>
+      <c r="B91" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C91" s="4">
         <v>4030010124</v>
@@ -2816,8 +2816,8 @@
       <c r="A92" s="2">
         <v>4030000243</v>
       </c>
-      <c r="B92" s="3">
-        <v>4030000000</v>
+      <c r="B92" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C92" s="4">
         <v>4030010125</v>
@@ -2836,8 +2836,8 @@
       <c r="A93" s="2">
         <v>4030000246</v>
       </c>
-      <c r="B93" s="3">
-        <v>4030000000</v>
+      <c r="B93" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C93" s="4">
         <v>4030010126</v>
@@ -2856,8 +2856,8 @@
       <c r="A94" s="2">
         <v>4030000087</v>
       </c>
-      <c r="B94" s="3">
-        <v>4030000000</v>
+      <c r="B94" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C94" s="4">
         <v>4030010127</v>
@@ -2876,8 +2876,8 @@
       <c r="A95" s="2">
         <v>4030000088</v>
       </c>
-      <c r="B95" s="3">
-        <v>4030000000</v>
+      <c r="B95" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C95" s="4">
         <v>4030010128</v>
@@ -2896,8 +2896,8 @@
       <c r="A96" s="2">
         <v>4030000090</v>
       </c>
-      <c r="B96" s="3">
-        <v>4030000000</v>
+      <c r="B96" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C96" s="4">
         <v>4030010130</v>
@@ -2916,8 +2916,8 @@
       <c r="A97" s="2">
         <v>4030000242</v>
       </c>
-      <c r="B97" s="3">
-        <v>4030000000</v>
+      <c r="B97" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C97" s="4">
         <v>4030010131</v>
@@ -2936,8 +2936,8 @@
       <c r="A98" s="2">
         <v>4030000241</v>
       </c>
-      <c r="B98" s="3">
-        <v>4030000000</v>
+      <c r="B98" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C98" s="4">
         <v>4030010132</v>
@@ -2956,8 +2956,8 @@
       <c r="A99" s="2">
         <v>4030000233</v>
       </c>
-      <c r="B99" s="3">
-        <v>4030000000</v>
+      <c r="B99" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C99" s="4">
         <v>4030010133</v>
@@ -2976,8 +2976,8 @@
       <c r="A100" s="2">
         <v>4030000094</v>
       </c>
-      <c r="B100" s="3">
-        <v>4030000000</v>
+      <c r="B100" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C100" s="4">
         <v>4030010134</v>
@@ -2996,8 +2996,8 @@
       <c r="A101" s="2">
         <v>4030000232</v>
       </c>
-      <c r="B101" s="3">
-        <v>4030000000</v>
+      <c r="B101" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C101" s="4">
         <v>4030010135</v>
@@ -3016,8 +3016,8 @@
       <c r="A102" s="2">
         <v>4030000098</v>
       </c>
-      <c r="B102" s="3">
-        <v>4030000000</v>
+      <c r="B102" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C102" s="4">
         <v>4030010138</v>
@@ -3036,8 +3036,8 @@
       <c r="A103" s="2">
         <v>4030000099</v>
       </c>
-      <c r="B103" s="3">
-        <v>4030000000</v>
+      <c r="B103" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C103" s="4">
         <v>4030010139</v>
@@ -3056,8 +3056,8 @@
       <c r="A104" s="2">
         <v>4030000100</v>
       </c>
-      <c r="B104" s="3">
-        <v>4030000000</v>
+      <c r="B104" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C104" s="4">
         <v>4030010140</v>
@@ -3076,8 +3076,8 @@
       <c r="A105" s="2">
         <v>4030000101</v>
       </c>
-      <c r="B105" s="3">
-        <v>4030000000</v>
+      <c r="B105" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C105" s="4">
         <v>4030010141</v>
@@ -3096,8 +3096,8 @@
       <c r="A106" s="2">
         <v>4030000111</v>
       </c>
-      <c r="B106" s="3">
-        <v>4030000000</v>
+      <c r="B106" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C106" s="4">
         <v>4030010142</v>
@@ -3116,8 +3116,8 @@
       <c r="A107" s="2">
         <v>4030000112</v>
       </c>
-      <c r="B107" s="3">
-        <v>4030000000</v>
+      <c r="B107" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C107" s="4">
         <v>4030010143</v>
@@ -3136,8 +3136,8 @@
       <c r="A108" s="2">
         <v>4030000113</v>
       </c>
-      <c r="B108" s="3">
-        <v>4030000000</v>
+      <c r="B108" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C108" s="4">
         <v>4030010144</v>
@@ -3156,8 +3156,8 @@
       <c r="A109" s="2">
         <v>4030000115</v>
       </c>
-      <c r="B109" s="3">
-        <v>4030000000</v>
+      <c r="B109" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C109" s="4">
         <v>4030010146</v>
@@ -3176,8 +3176,8 @@
       <c r="A110" s="2">
         <v>4030000134</v>
       </c>
-      <c r="B110" s="3">
-        <v>4030000000</v>
+      <c r="B110" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C110" s="4">
         <v>4030010147</v>
@@ -3196,8 +3196,8 @@
       <c r="A111" s="2">
         <v>4030000147</v>
       </c>
-      <c r="B111" s="3">
-        <v>4030000000</v>
+      <c r="B111" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C111" s="4">
         <v>4030010148</v>
@@ -3216,8 +3216,8 @@
       <c r="A112" s="2">
         <v>4030000148</v>
       </c>
-      <c r="B112" s="3">
-        <v>4030000000</v>
+      <c r="B112" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C112" s="4">
         <v>4030010149</v>
@@ -3236,8 +3236,8 @@
       <c r="A113" s="2">
         <v>4030000149</v>
       </c>
-      <c r="B113" s="3">
-        <v>4030000000</v>
+      <c r="B113" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C113" s="4">
         <v>4030010150</v>
@@ -3256,8 +3256,8 @@
       <c r="A114" s="2">
         <v>4030000150</v>
       </c>
-      <c r="B114" s="3">
-        <v>4030000000</v>
+      <c r="B114" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C114" s="4">
         <v>4030010151</v>
@@ -3273,8 +3273,8 @@
       <c r="A115" s="2">
         <v>4030000151</v>
       </c>
-      <c r="B115" s="3">
-        <v>4030000000</v>
+      <c r="B115" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C115" s="4">
         <v>4030010152</v>
@@ -3293,8 +3293,8 @@
       <c r="A116" s="2">
         <v>4030000262</v>
       </c>
-      <c r="B116" s="3">
-        <v>4030000000</v>
+      <c r="B116" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C116" s="4">
         <v>4030010154</v>
@@ -3313,8 +3313,8 @@
       <c r="A117" s="2">
         <v>4030000152</v>
       </c>
-      <c r="B117" s="3">
-        <v>4030000000</v>
+      <c r="B117" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C117" s="4">
         <v>4030010155</v>
@@ -3333,8 +3333,8 @@
       <c r="A118" s="2">
         <v>4030000253</v>
       </c>
-      <c r="B118" s="3">
-        <v>4030000000</v>
+      <c r="B118" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C118" s="4">
         <v>4030010157</v>
@@ -3353,8 +3353,8 @@
       <c r="A119" s="2">
         <v>4030000155</v>
       </c>
-      <c r="B119" s="3">
-        <v>4030000000</v>
+      <c r="B119" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C119" s="4">
         <v>4030010158</v>
@@ -3373,8 +3373,8 @@
       <c r="A120" s="2">
         <v>4030000156</v>
       </c>
-      <c r="B120" s="3">
-        <v>4030000000</v>
+      <c r="B120" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C120" s="4">
         <v>4030010159</v>
@@ -3393,8 +3393,8 @@
       <c r="A121" s="2">
         <v>4030000157</v>
       </c>
-      <c r="B121" s="3">
-        <v>4030000000</v>
+      <c r="B121" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C121" s="4">
         <v>4030010160</v>
@@ -3413,8 +3413,8 @@
       <c r="A122" s="2">
         <v>4030000164</v>
       </c>
-      <c r="B122" s="3">
-        <v>4030000000</v>
+      <c r="B122" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C122" s="4">
         <v>4030010161</v>
@@ -3433,8 +3433,8 @@
       <c r="A123" s="2">
         <v>4030000167</v>
       </c>
-      <c r="B123" s="3">
-        <v>4030000000</v>
+      <c r="B123" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C123" s="4">
         <v>4030010164</v>
@@ -3453,8 +3453,8 @@
       <c r="A124" s="2">
         <v>4030000263</v>
       </c>
-      <c r="B124" s="3">
-        <v>4030000000</v>
+      <c r="B124" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C124" s="4">
         <v>4030010165</v>
@@ -3473,8 +3473,8 @@
       <c r="A125" s="2">
         <v>4030000269</v>
       </c>
-      <c r="B125" s="3">
-        <v>4030000000</v>
+      <c r="B125" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C125" s="4">
         <v>4030010168</v>
@@ -3493,8 +3493,8 @@
       <c r="A126" s="2">
         <v>4030000271</v>
       </c>
-      <c r="B126" s="3">
-        <v>4030000000</v>
+      <c r="B126" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C126" s="4">
         <v>4030010169</v>
@@ -3513,8 +3513,8 @@
       <c r="A127" s="2">
         <v>4030000278</v>
       </c>
-      <c r="B127" s="3">
-        <v>4030000000</v>
+      <c r="B127" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C127" s="4">
         <v>4030010172</v>
@@ -3533,8 +3533,8 @@
       <c r="A128" s="2">
         <v>4030000286</v>
       </c>
-      <c r="B128" s="3">
-        <v>4030000000</v>
+      <c r="B128" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C128" s="4">
         <v>4030010176</v>
@@ -3553,8 +3553,8 @@
       <c r="A129" s="2">
         <v>4030000287</v>
       </c>
-      <c r="B129" s="3">
-        <v>4030000000</v>
+      <c r="B129" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C129" s="4">
         <v>4030010177</v>
@@ -3573,8 +3573,8 @@
       <c r="A130" s="2">
         <v>4030000288</v>
       </c>
-      <c r="B130" s="3">
-        <v>4030000000</v>
+      <c r="B130" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C130" s="4">
         <v>4030010178</v>
@@ -3593,8 +3593,8 @@
       <c r="A131" s="2">
         <v>4030000290</v>
       </c>
-      <c r="B131" s="3">
-        <v>4030000000</v>
+      <c r="B131" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C131" s="4">
         <v>4030010180</v>
@@ -3613,8 +3613,8 @@
       <c r="A132" s="2">
         <v>4030000291</v>
       </c>
-      <c r="B132" s="3">
-        <v>4030000000</v>
+      <c r="B132" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C132" s="4">
         <v>4030010181</v>
@@ -3633,8 +3633,8 @@
       <c r="A133" s="2">
         <v>4030000292</v>
       </c>
-      <c r="B133" s="3">
-        <v>4030000000</v>
+      <c r="B133" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C133" s="4">
         <v>4030010182</v>
@@ -3653,8 +3653,8 @@
       <c r="A134" s="2">
         <v>4030000293</v>
       </c>
-      <c r="B134" s="3">
-        <v>4030000000</v>
+      <c r="B134" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C134" s="4">
         <v>4030010183</v>
@@ -3673,8 +3673,8 @@
       <c r="A135" s="2">
         <v>4030000311</v>
       </c>
-      <c r="B135" s="3">
-        <v>4030000000</v>
+      <c r="B135" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C135" s="4">
         <v>4030010185</v>
@@ -3693,8 +3693,8 @@
       <c r="A136" s="2">
         <v>4030000297</v>
       </c>
-      <c r="B136" s="3">
-        <v>4030000000</v>
+      <c r="B136" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C136" s="4">
         <v>4030010187</v>
@@ -3713,8 +3713,8 @@
       <c r="A137" s="2">
         <v>4030000299</v>
       </c>
-      <c r="B137" s="3">
-        <v>4030000000</v>
+      <c r="B137" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C137" s="4">
         <v>4030010188</v>
@@ -3733,8 +3733,8 @@
       <c r="A138" s="2">
         <v>4030000300</v>
       </c>
-      <c r="B138" s="3">
-        <v>4030000000</v>
+      <c r="B138" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C138" s="4">
         <v>4030010189</v>
@@ -3753,8 +3753,8 @@
       <c r="A139" s="2">
         <v>4030000302</v>
       </c>
-      <c r="B139" s="3">
-        <v>4030000000</v>
+      <c r="B139" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C139" s="4">
         <v>4030010191</v>
@@ -3773,8 +3773,8 @@
       <c r="A140" s="2">
         <v>4030000305</v>
       </c>
-      <c r="B140" s="3">
-        <v>4030000000</v>
+      <c r="B140" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C140" s="4">
         <v>4030010194</v>
@@ -3793,8 +3793,8 @@
       <c r="A141" s="2">
         <v>4030000307</v>
       </c>
-      <c r="B141" s="3">
-        <v>4030000000</v>
+      <c r="B141" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C141" s="4">
         <v>4030010196</v>
@@ -3813,8 +3813,8 @@
       <c r="A142" s="2">
         <v>4030000309</v>
       </c>
-      <c r="B142" s="3">
-        <v>4030000000</v>
+      <c r="B142" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C142" s="4">
         <v>4030010197</v>
@@ -3833,8 +3833,8 @@
       <c r="A143" s="2">
         <v>4030000314</v>
       </c>
-      <c r="B143" s="3">
-        <v>4030000000</v>
+      <c r="B143" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C143" s="4">
         <v>4030010198</v>
@@ -3853,8 +3853,8 @@
       <c r="A144" s="2">
         <v>4030000369</v>
       </c>
-      <c r="B144" s="3">
-        <v>4030000000</v>
+      <c r="B144" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C144" s="4">
         <v>4030010199</v>
@@ -3873,8 +3873,8 @@
       <c r="A145" s="2">
         <v>4030000316</v>
       </c>
-      <c r="B145" s="3">
-        <v>4030000000</v>
+      <c r="B145" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C145" s="4">
         <v>4030010200</v>
@@ -3893,8 +3893,8 @@
       <c r="A146" s="2">
         <v>4030000317</v>
       </c>
-      <c r="B146" s="3">
-        <v>4030000000</v>
+      <c r="B146" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C146" s="4">
         <v>4030010201</v>
@@ -3913,8 +3913,8 @@
       <c r="A147" s="2">
         <v>4030000318</v>
       </c>
-      <c r="B147" s="3">
-        <v>4030000000</v>
+      <c r="B147" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C147" s="4">
         <v>4030010202</v>
@@ -3933,8 +3933,8 @@
       <c r="A148" s="2">
         <v>4030000319</v>
       </c>
-      <c r="B148" s="3">
-        <v>4030000000</v>
+      <c r="B148" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C148" s="4">
         <v>4030010203</v>
@@ -3953,8 +3953,8 @@
       <c r="A149" s="2">
         <v>4030000321</v>
       </c>
-      <c r="B149" s="3">
-        <v>4030000000</v>
+      <c r="B149" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C149" s="4">
         <v>4030010205</v>
@@ -3973,8 +3973,8 @@
       <c r="A150" s="2">
         <v>4030000324</v>
       </c>
-      <c r="B150" s="3">
-        <v>4030000000</v>
+      <c r="B150" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C150" s="4">
         <v>4030010206</v>
@@ -3993,8 +3993,8 @@
       <c r="A151" s="2">
         <v>4030000326</v>
       </c>
-      <c r="B151" s="3">
-        <v>4030000000</v>
+      <c r="B151" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C151" s="4">
         <v>4030010208</v>
@@ -4013,8 +4013,8 @@
       <c r="A152" s="2">
         <v>4030000327</v>
       </c>
-      <c r="B152" s="3">
-        <v>4030000000</v>
+      <c r="B152" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C152" s="4">
         <v>4030010209</v>
@@ -4033,8 +4033,8 @@
       <c r="A153" s="2">
         <v>4030000328</v>
       </c>
-      <c r="B153" s="3">
-        <v>4030000000</v>
+      <c r="B153" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C153" s="4">
         <v>4030010210</v>
@@ -4053,8 +4053,8 @@
       <c r="A154" s="2">
         <v>4030000331</v>
       </c>
-      <c r="B154" s="3">
-        <v>4030000000</v>
+      <c r="B154" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C154" s="4">
         <v>4030010212</v>
@@ -4073,8 +4073,8 @@
       <c r="A155" s="2">
         <v>4030000334</v>
       </c>
-      <c r="B155" s="3">
-        <v>4030000000</v>
+      <c r="B155" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C155" s="4">
         <v>4030010215</v>
@@ -4093,8 +4093,8 @@
       <c r="A156" s="2">
         <v>4030000337</v>
       </c>
-      <c r="B156" s="3">
-        <v>4030000000</v>
+      <c r="B156" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C156" s="4">
         <v>4030010216</v>
@@ -4113,8 +4113,8 @@
       <c r="A157" s="2">
         <v>4030000341</v>
       </c>
-      <c r="B157" s="3">
-        <v>4030000000</v>
+      <c r="B157" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C157" s="4">
         <v>4030010218</v>
@@ -4133,8 +4133,8 @@
       <c r="A158" s="2">
         <v>4030000342</v>
       </c>
-      <c r="B158" s="3">
-        <v>4030000000</v>
+      <c r="B158" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C158" s="4">
         <v>4030010219</v>
@@ -4153,8 +4153,8 @@
       <c r="A159" s="2">
         <v>4030000377</v>
       </c>
-      <c r="B159" s="3">
-        <v>4030000000</v>
+      <c r="B159" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C159" s="4">
         <v>4030010220</v>
@@ -4173,8 +4173,8 @@
       <c r="A160" s="2">
         <v>4030000345</v>
       </c>
-      <c r="B160" s="3">
-        <v>4030000000</v>
+      <c r="B160" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C160" s="4">
         <v>4030010222</v>
@@ -4193,8 +4193,8 @@
       <c r="A161" s="2">
         <v>4030000346</v>
       </c>
-      <c r="B161" s="3">
-        <v>4030000000</v>
+      <c r="B161" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C161" s="4">
         <v>4030010223</v>
@@ -4213,8 +4213,8 @@
       <c r="A162" s="2">
         <v>4030000349</v>
       </c>
-      <c r="B162" s="3">
-        <v>4030000000</v>
+      <c r="B162" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C162" s="4">
         <v>4030010225</v>
@@ -4233,8 +4233,8 @@
       <c r="A163" s="2">
         <v>4030000350</v>
       </c>
-      <c r="B163" s="3">
-        <v>4030000000</v>
+      <c r="B163" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C163" s="4">
         <v>4030010226</v>
@@ -4253,8 +4253,8 @@
       <c r="A164" s="2">
         <v>4030000370</v>
       </c>
-      <c r="B164" s="3">
-        <v>4030000000</v>
+      <c r="B164" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C164" s="4">
         <v>4030010227</v>
@@ -4273,8 +4273,8 @@
       <c r="A165" s="2">
         <v>4030000353</v>
       </c>
-      <c r="B165" s="3">
-        <v>4030000000</v>
+      <c r="B165" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C165" s="4">
         <v>4030010228</v>
@@ -4293,8 +4293,8 @@
       <c r="A166" s="2">
         <v>4030000355</v>
       </c>
-      <c r="B166" s="3">
-        <v>4030000000</v>
+      <c r="B166" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C166" s="4">
         <v>4030010230</v>
@@ -4313,8 +4313,8 @@
       <c r="A167" s="2">
         <v>4030000356</v>
       </c>
-      <c r="B167" s="3">
-        <v>4030000000</v>
+      <c r="B167" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C167" s="4">
         <v>4030010231</v>
@@ -4333,8 +4333,8 @@
       <c r="A168" s="2">
         <v>4030000357</v>
       </c>
-      <c r="B168" s="3">
-        <v>4030000000</v>
+      <c r="B168" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C168" s="4">
         <v>4030010232</v>
@@ -4353,8 +4353,8 @@
       <c r="A169" s="2">
         <v>4030000374</v>
       </c>
-      <c r="B169" s="3">
-        <v>4030000000</v>
+      <c r="B169" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C169" s="4">
         <v>4030010233</v>
@@ -4373,8 +4373,8 @@
       <c r="A170" s="2">
         <v>4030000358</v>
       </c>
-      <c r="B170" s="3">
-        <v>4030000000</v>
+      <c r="B170" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C170" s="4">
         <v>4030010234</v>
@@ -4393,8 +4393,8 @@
       <c r="A171" s="2">
         <v>4030000359</v>
       </c>
-      <c r="B171" s="3">
-        <v>4030000000</v>
+      <c r="B171" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C171" s="4">
         <v>4030010235</v>
@@ -4413,8 +4413,8 @@
       <c r="A172" s="2">
         <v>4030000363</v>
       </c>
-      <c r="B172" s="3">
-        <v>4030000000</v>
+      <c r="B172" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C172" s="4">
         <v>4030010237</v>
@@ -4433,8 +4433,8 @@
       <c r="A173" s="2">
         <v>4030000365</v>
       </c>
-      <c r="B173" s="3">
-        <v>4030000000</v>
+      <c r="B173" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C173" s="4">
         <v>4030010239</v>
@@ -4453,8 +4453,8 @@
       <c r="A174" s="2">
         <v>4030000367</v>
       </c>
-      <c r="B174" s="3">
-        <v>4030000000</v>
+      <c r="B174" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C174" s="4">
         <v>4030010240</v>
@@ -4473,8 +4473,8 @@
       <c r="A175" s="2">
         <v>4030000368</v>
       </c>
-      <c r="B175" s="3">
-        <v>4030000000</v>
+      <c r="B175" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C175" s="4">
         <v>4030010241</v>
@@ -4493,8 +4493,8 @@
       <c r="A176" s="2">
         <v>4030000375</v>
       </c>
-      <c r="B176" s="3">
-        <v>4030000000</v>
+      <c r="B176" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C176" s="4">
         <v>4030010242</v>
@@ -4513,8 +4513,8 @@
       <c r="A177" s="2">
         <v>4030000385</v>
       </c>
-      <c r="B177" s="3">
-        <v>4030000000</v>
+      <c r="B177" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C177" s="4">
         <v>4030010258</v>
@@ -4533,8 +4533,8 @@
       <c r="A178" s="2">
         <v>4030000381</v>
       </c>
-      <c r="B178" s="3">
-        <v>4030000000</v>
+      <c r="B178" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C178" s="4">
         <v>4030010271</v>
@@ -4553,8 +4553,8 @@
       <c r="A179" s="2">
         <v>4030000382</v>
       </c>
-      <c r="B179" s="3">
-        <v>4030000000</v>
+      <c r="B179" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C179" s="4">
         <v>4030010284</v>
@@ -4573,8 +4573,8 @@
       <c r="A180" s="2">
         <v>4030000384</v>
       </c>
-      <c r="B180" s="3">
-        <v>4030000000</v>
+      <c r="B180" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C180" s="4">
         <v>4030010286</v>
@@ -4593,8 +4593,8 @@
       <c r="A181" s="2">
         <v>4030000380</v>
       </c>
-      <c r="B181" s="3">
-        <v>4030000000</v>
+      <c r="B181" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C181" s="4">
         <v>4030010292</v>
@@ -4613,8 +4613,8 @@
       <c r="A182" s="2">
         <v>4030000376</v>
       </c>
-      <c r="B182" s="3">
-        <v>4030000000</v>
+      <c r="B182" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C182" s="4">
         <v>4030010294</v>
@@ -4633,8 +4633,8 @@
       <c r="A183" s="2">
         <v>4030000378</v>
       </c>
-      <c r="B183" s="3">
-        <v>4030000000</v>
+      <c r="B183" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C183" s="4">
         <v>4030010295</v>
@@ -4653,8 +4653,8 @@
       <c r="A184" s="2">
         <v>4030000379</v>
       </c>
-      <c r="B184" s="3">
-        <v>4030000000</v>
+      <c r="B184" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C184" s="4">
         <v>4030010296</v>
@@ -4673,8 +4673,8 @@
       <c r="A185" s="2">
         <v>4030000372</v>
       </c>
-      <c r="B185" s="3">
-        <v>4030000000</v>
+      <c r="B185" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C185" s="4">
         <v>4030020008</v>
@@ -4693,8 +4693,8 @@
       <c r="A186" s="2">
         <v>4030000187</v>
       </c>
-      <c r="B186" s="3">
-        <v>4030000000</v>
+      <c r="B186" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C186" s="4">
         <v>4030020013</v>
@@ -4713,8 +4713,8 @@
       <c r="A187" s="2">
         <v>4030000193</v>
       </c>
-      <c r="B187" s="3">
-        <v>4030000000</v>
+      <c r="B187" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C187" s="4">
         <v>4030020014</v>
@@ -4733,8 +4733,8 @@
       <c r="A188" s="2">
         <v>4030000323</v>
       </c>
-      <c r="B188" s="3">
-        <v>4030000000</v>
+      <c r="B188" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C188" s="4">
         <v>4030020015</v>
@@ -4753,8 +4753,8 @@
       <c r="A189" s="2">
         <v>4030000188</v>
       </c>
-      <c r="B189" s="3">
-        <v>4030000000</v>
+      <c r="B189" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C189" s="4">
         <v>4030020016</v>
@@ -4773,8 +4773,8 @@
       <c r="A190" s="2">
         <v>4030000216</v>
       </c>
-      <c r="B190" s="3">
-        <v>4030000000</v>
+      <c r="B190" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C190" s="4">
         <v>4030020039</v>
@@ -4793,8 +4793,8 @@
       <c r="A191" s="2">
         <v>4030000219</v>
       </c>
-      <c r="B191" s="3">
-        <v>4030000000</v>
+      <c r="B191" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C191" s="4">
         <v>4030020043</v>
@@ -4813,8 +4813,8 @@
       <c r="A192" s="2">
         <v>4030000336</v>
       </c>
-      <c r="B192" s="3">
-        <v>4030000000</v>
+      <c r="B192" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C192" s="4">
         <v>4030020054</v>
@@ -4833,8 +4833,8 @@
       <c r="A193" s="2">
         <v>4030000257</v>
       </c>
-      <c r="B193" s="3">
-        <v>4030000000</v>
+      <c r="B193" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C193" s="4">
         <v>4030020056</v>
@@ -4853,8 +4853,8 @@
       <c r="A194" s="2">
         <v>4030000196</v>
       </c>
-      <c r="B194" s="3">
-        <v>4030000000</v>
+      <c r="B194" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C194" s="4">
         <v>4030020086</v>
@@ -4873,8 +4873,8 @@
       <c r="A195" s="2">
         <v>4030000201</v>
       </c>
-      <c r="B195" s="3">
-        <v>4030000000</v>
+      <c r="B195" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C195" s="4">
         <v>4030020087</v>
@@ -4893,8 +4893,8 @@
       <c r="A196" s="2">
         <v>4030000194</v>
       </c>
-      <c r="B196" s="3">
-        <v>4030000000</v>
+      <c r="B196" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C196" s="4">
         <v>4030020088</v>
@@ -4913,8 +4913,8 @@
       <c r="A197" s="2">
         <v>4030000210</v>
       </c>
-      <c r="B197" s="3">
-        <v>4030000000</v>
+      <c r="B197" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C197" s="4">
         <v>4030020090</v>
@@ -4933,8 +4933,8 @@
       <c r="A198" s="2">
         <v>4030000199</v>
       </c>
-      <c r="B198" s="3">
-        <v>4030000000</v>
+      <c r="B198" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C198" s="4">
         <v>4030020091</v>
@@ -4953,8 +4953,8 @@
       <c r="A199" s="2">
         <v>4030000198</v>
       </c>
-      <c r="B199" s="3">
-        <v>4030000000</v>
+      <c r="B199" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C199" s="4">
         <v>4030020094</v>
@@ -4973,8 +4973,8 @@
       <c r="A200" s="2">
         <v>4030000191</v>
       </c>
-      <c r="B200" s="3">
-        <v>4030000000</v>
+      <c r="B200" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C200" s="4">
         <v>4030020095</v>
@@ -4993,8 +4993,8 @@
       <c r="A201" s="2">
         <v>4030000197</v>
       </c>
-      <c r="B201" s="3">
-        <v>4030000000</v>
+      <c r="B201" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C201" s="4">
         <v>4030020096</v>
@@ -5013,8 +5013,8 @@
       <c r="A202" s="2">
         <v>4030000195</v>
       </c>
-      <c r="B202" s="3">
-        <v>4030000000</v>
+      <c r="B202" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C202" s="4">
         <v>4030020097</v>
@@ -5033,8 +5033,8 @@
       <c r="A203" s="2">
         <v>4030000213</v>
       </c>
-      <c r="B203" s="3">
-        <v>4030000000</v>
+      <c r="B203" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C203" s="4">
         <v>4030020099</v>
@@ -5053,8 +5053,8 @@
       <c r="A204" s="2">
         <v>4030000205</v>
       </c>
-      <c r="B204" s="3">
-        <v>4030000000</v>
+      <c r="B204" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C204" s="4">
         <v>4030020104</v>
@@ -5073,8 +5073,8 @@
       <c r="A205" s="2">
         <v>4030000234</v>
       </c>
-      <c r="B205" s="3">
-        <v>4030000000</v>
+      <c r="B205" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C205" s="4">
         <v>4030020107</v>
@@ -5093,8 +5093,8 @@
       <c r="A206" s="2">
         <v>4030000236</v>
       </c>
-      <c r="B206" s="3">
-        <v>4030000000</v>
+      <c r="B206" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C206" s="4">
         <v>4030020111</v>
@@ -5113,8 +5113,8 @@
       <c r="A207" s="2">
         <v>4030000160</v>
       </c>
-      <c r="B207" s="3">
-        <v>4030000000</v>
+      <c r="B207" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C207" s="4">
         <v>4030020118</v>
@@ -5133,8 +5133,8 @@
       <c r="A208" s="2">
         <v>4030000239</v>
       </c>
-      <c r="B208" s="3">
-        <v>4030000000</v>
+      <c r="B208" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C208" s="4">
         <v>4030020122</v>
@@ -5153,8 +5153,8 @@
       <c r="A209" s="2">
         <v>4030000240</v>
       </c>
-      <c r="B209" s="3">
-        <v>4030000000</v>
+      <c r="B209" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C209" s="4">
         <v>4030020128</v>
@@ -5173,8 +5173,8 @@
       <c r="A210" s="2">
         <v>4030000371</v>
       </c>
-      <c r="B210" s="3">
-        <v>4030000000</v>
+      <c r="B210" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C210" s="4">
         <v>4030020132</v>
@@ -5193,8 +5193,8 @@
       <c r="A211" s="2">
         <v>4030000264</v>
       </c>
-      <c r="B211" s="3">
-        <v>4030000000</v>
+      <c r="B211" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C211" s="4">
         <v>4030020165</v>
@@ -5213,8 +5213,8 @@
       <c r="A212" s="2">
         <v>4030000279</v>
       </c>
-      <c r="B212" s="3">
-        <v>4030000000</v>
+      <c r="B212" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C212" s="4">
         <v>4030020172</v>
@@ -5233,8 +5233,8 @@
       <c r="A213" s="2">
         <v>4030000312</v>
       </c>
-      <c r="B213" s="3">
-        <v>4030000000</v>
+      <c r="B213" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C213" s="4">
         <v>4030020185</v>
@@ -5253,8 +5253,8 @@
       <c r="A214" s="2">
         <v>4030000298</v>
       </c>
-      <c r="B214" s="3">
-        <v>4030000000</v>
+      <c r="B214" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C214" s="4">
         <v>4030020187</v>
@@ -5273,8 +5273,8 @@
       <c r="A215" s="2">
         <v>4030000310</v>
       </c>
-      <c r="B215" s="3">
-        <v>4030000000</v>
+      <c r="B215" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C215" s="4">
         <v>4030020197</v>
@@ -5293,8 +5293,8 @@
       <c r="A216" s="2">
         <v>4030000313</v>
       </c>
-      <c r="B216" s="3">
-        <v>4030000000</v>
+      <c r="B216" s="8">
+        <v>2040000000</v>
       </c>
       <c r="C216" s="4">
         <v>4030030185</v>
@@ -5310,21 +5310,11 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>4030000259</v>
-      </c>
-      <c r="B217" s="3">
-        <v>4030000000</v>
-      </c>
-      <c r="C217" s="4">
-        <v>100000010565</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E217" s="6">
-        <v>4030000001.0999999</v>
-      </c>
+      <c r="A217" s="2"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/group.xlsx
@@ -2,19 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="27495" windowHeight="11445"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="201">
   <si>
     <t>_Id</t>
   </si>
@@ -34,448 +39,574 @@
     <t>DesSG</t>
   </si>
   <si>
+    <t>Office de Taizé</t>
+  </si>
+  <si>
+    <t>Groupes morgiens d'origine</t>
+  </si>
+  <si>
+    <t>Parkings des Jardins - Locataires</t>
+  </si>
+  <si>
+    <t>Camp 2000 - participants adultes-enfants</t>
+  </si>
+  <si>
+    <t>Participants cycle "Le ciel est en toi"</t>
+  </si>
+  <si>
+    <t>Jeunes paroissiens</t>
+  </si>
+  <si>
+    <t>Participants à la Fête de l'Alliance</t>
+  </si>
+  <si>
+    <t>Participants Fête de l'Alliance 2001</t>
+  </si>
+  <si>
+    <t>Participants Fête de l'Alliance 2002</t>
+  </si>
+  <si>
+    <t>Voyage sur les traces de Luther et Bach</t>
+  </si>
+  <si>
+    <t>Endeuillés 96-97</t>
+  </si>
+  <si>
+    <t>Voyage "Protestantisme en Europe" 2003</t>
+  </si>
+  <si>
+    <t>Anciens groupes veuvage 94-97</t>
+  </si>
+  <si>
+    <t>Voyage Traditions et Santons de Provence 2002</t>
+  </si>
+  <si>
+    <t>Camp Sommières 2001</t>
+  </si>
+  <si>
+    <t>Participants à Espace-Souffle</t>
+  </si>
+  <si>
+    <t>Groupe - Plateforme des Eglises chrétiennes</t>
+  </si>
+  <si>
+    <t>Groupes d'adultes</t>
+  </si>
+  <si>
+    <t>Dames pâtisseries</t>
+  </si>
+  <si>
+    <t>Mises sous pli - envoi en masse</t>
+  </si>
+  <si>
+    <t>Servir, ranger, vaisselle lors Fête Paroisse</t>
+  </si>
+  <si>
+    <t>St-Nicolas - couronnes</t>
+  </si>
+  <si>
+    <t>Contact pour fête de paroisse 2003</t>
+  </si>
+  <si>
+    <t>Groupe - Journée mondiale de prière</t>
+  </si>
+  <si>
+    <t>Responsables groupes paroissiaux</t>
+  </si>
+  <si>
+    <t>Invitations pour fête de paroisse</t>
+  </si>
+  <si>
+    <t>Anciens conseillers de paroisse</t>
+  </si>
+  <si>
+    <t>Anciens resp.gard., café, lect., concier., music., monit., St-Nic., page par.</t>
+  </si>
+  <si>
+    <t>Anciens pasteurs</t>
+  </si>
+  <si>
+    <t>Anciens suppléants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anciens Présidents </t>
+  </si>
+  <si>
+    <t>Groupe - Gym des aînés</t>
+  </si>
+  <si>
+    <t>Culte de l'Enfance 1999-2000</t>
+  </si>
+  <si>
+    <t>Enfance</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2000-2001</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2001-2002</t>
+  </si>
+  <si>
+    <t>Culte de l'Enfance 2002-2003</t>
+  </si>
+  <si>
+    <t>Camp famille 2009</t>
+  </si>
+  <si>
+    <t>Enfance / CE moniteurs, monitrices</t>
+  </si>
+  <si>
+    <t>Eveil à la Foi - célébrations</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2003-2004</t>
+  </si>
+  <si>
+    <t>CE 12-13/ Echichens H. Della Casa</t>
+  </si>
+  <si>
+    <t>CE 12-13 / Monnaz E. Cornut</t>
+  </si>
+  <si>
+    <t>CE 12-13 / AM Köllmann</t>
+  </si>
+  <si>
+    <t>Culte de l'Enfance 2009-2010</t>
+  </si>
+  <si>
+    <t>Enfance / EF - moniteurs, monitrices</t>
+  </si>
+  <si>
+    <t>CE 12-13 / Colombier V. Grossenbacher</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2004-2005</t>
+  </si>
+  <si>
+    <t>Cultes - Garderie</t>
+  </si>
+  <si>
+    <t>Culte de l'Enfance 2005-2006</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2006-2007</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2007-2008</t>
+  </si>
+  <si>
+    <t>Acey CE 2009</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2008-2009</t>
+  </si>
+  <si>
+    <t>Culte de l'enfance 2010-2011</t>
+  </si>
+  <si>
+    <t>Culte de l'Enfance 2011-2012</t>
+  </si>
+  <si>
+    <t>CE 12-13 / C. Arn</t>
+  </si>
+  <si>
+    <t>Aides occasionnelles KT 99/2000</t>
+  </si>
+  <si>
+    <t>Jeunesse</t>
+  </si>
+  <si>
+    <t>Catéchumènes Alliance 96/97/98/99/00</t>
+  </si>
+  <si>
+    <t>Animateurs PréKT 2003-2004</t>
+  </si>
+  <si>
+    <t>Eoliennes 98, Vaucluse 99, Corse 2000 et  Cévennes 97/98/2000/01</t>
+  </si>
+  <si>
+    <t>Animateurs et participants Cévennes 2002</t>
+  </si>
+  <si>
+    <t>Animateurs Cévennes 2003</t>
+  </si>
+  <si>
+    <t>Catéchumènes 2001-2002</t>
+  </si>
+  <si>
+    <t>Catéchumènes 3ème année 2000/2001</t>
+  </si>
+  <si>
+    <t>Anciens catéchumènes</t>
+  </si>
+  <si>
+    <t>Amis de la P2</t>
+  </si>
+  <si>
+    <t>Catéchumènes Rameaux 97/98/99/2000/01</t>
+  </si>
+  <si>
+    <t>Jeunesse - Pasteur, diacre et secrétariat</t>
+  </si>
+  <si>
+    <t>Cévennes 2005 - participants</t>
+  </si>
+  <si>
+    <t>Cévennes 2005 - animateurs</t>
+  </si>
+  <si>
+    <t>Jeunesse - Alliance 2002</t>
+  </si>
+  <si>
+    <t>Cévennes 2007 - Participants</t>
+  </si>
+  <si>
+    <t>Cévennes 2007 - Animateurs</t>
+  </si>
+  <si>
+    <t>Aînés de la paroisse</t>
+  </si>
+  <si>
+    <t>Aînés</t>
+  </si>
+  <si>
+    <t>Retraite des aînés Château d'Oex 10 - 12 juin 2003</t>
+  </si>
+  <si>
+    <t>FVP</t>
+  </si>
+  <si>
+    <t>Vieillir, Comprendre, Accompagner 2003-2004</t>
+  </si>
+  <si>
+    <t>Responsable Aînés</t>
+  </si>
+  <si>
+    <t>Noël 2007</t>
+  </si>
+  <si>
+    <t>Nonagénaires</t>
+  </si>
+  <si>
+    <t>Noël 2008</t>
+  </si>
+  <si>
+    <t>Groupe - Responsables visiteurs paroissiaux</t>
+  </si>
+  <si>
+    <t>Groupe - Choeur aînés</t>
+  </si>
+  <si>
+    <t>Noël 2009</t>
+  </si>
+  <si>
+    <t>Envoi Noël 2010</t>
+  </si>
+  <si>
+    <t>Noël 2010</t>
+  </si>
+  <si>
+    <t>Noël Aînés 2011</t>
+  </si>
+  <si>
+    <t>Noël Aînés 2012</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle - Ouverture Monde</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre Nouvelle - Commission </t>
+  </si>
+  <si>
+    <t>Terre Nouvelle - donateurs</t>
+  </si>
+  <si>
+    <t>TN-Ouverture Monde/Externes</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle - Vente</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle - Responsables Vente</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle - Ouverture sur le Monde</t>
+  </si>
+  <si>
+    <t>Coup de pouce 2005-lettres E-F+arrivées 01.07.04-31.07.05</t>
+  </si>
+  <si>
+    <t>Coup de Pouce 2006 /arrivées 1.7.05-31.7.05 + lettres G-H-I</t>
+  </si>
+  <si>
+    <t>Coup de pouce 07/1.08.06-31.07.07+JKL</t>
+  </si>
+  <si>
+    <t>Coup de pouce 1.8.07 au 31.7.08+M</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle - Responsables</t>
+  </si>
+  <si>
+    <t>MARIAGES</t>
+  </si>
+  <si>
+    <t>REGISTRES PAROISSIAUX</t>
+  </si>
+  <si>
+    <t>SERVICES FUNEBRES</t>
+  </si>
+  <si>
+    <t>BENEDICTIONS DES CATECHUMENES</t>
+  </si>
+  <si>
+    <t>BAPTEMES</t>
+  </si>
+  <si>
+    <t>BENEDICTIONS DES PETITS ENFANTS</t>
+  </si>
+  <si>
+    <t>Envoi pub Spiritualité</t>
+  </si>
+  <si>
+    <t>Adultes</t>
+  </si>
+  <si>
+    <t>Camp Assise 2003</t>
+  </si>
+  <si>
+    <t>Alphalive - animateurs</t>
+  </si>
+  <si>
+    <t>M-Cumulus</t>
+  </si>
+  <si>
+    <t>Alpha Live 05 - participants</t>
+  </si>
+  <si>
+    <t>La Bible et nous</t>
+  </si>
+  <si>
+    <t>Chapelle - inauguration/responsables</t>
+  </si>
+  <si>
+    <t>Jeunes Adultes</t>
+  </si>
+  <si>
+    <t>Montmeyran 06</t>
+  </si>
+  <si>
+    <t>Spiritualité 2004-2009</t>
+  </si>
+  <si>
+    <t>Repas bénévoles 2006</t>
+  </si>
+  <si>
+    <t>Alphalive 07 - Groupe 1</t>
+  </si>
+  <si>
+    <t>Alphalive 07 - Groupe 2</t>
+  </si>
+  <si>
+    <t>Taizé 07-08</t>
+  </si>
+  <si>
+    <t>Désert 2008</t>
+  </si>
+  <si>
+    <t>Cathares 08</t>
+  </si>
+  <si>
+    <t>2010 - 2011 La Bible et nous</t>
+  </si>
+  <si>
+    <t>Désert 2010</t>
+  </si>
+  <si>
+    <t>2010  - 2011 Parler de la mort , c'est parler de la vie</t>
+  </si>
+  <si>
+    <t>Désert 2009</t>
+  </si>
+  <si>
+    <t>Voeux 09</t>
+  </si>
+  <si>
+    <t>Repas bénéboles 2009</t>
+  </si>
+  <si>
+    <t>2010 - 2011 Autour d'un livre</t>
+  </si>
+  <si>
+    <t>2010 - 2011 Matinée Lectio Divina</t>
+  </si>
+  <si>
+    <t>Camp Tessin 2010</t>
+  </si>
+  <si>
+    <t>Adieux NB - mars 2010</t>
+  </si>
+  <si>
+    <t>Adieux NB - Repas/Inscriptions</t>
+  </si>
+  <si>
+    <t>Veillée 2009-2010</t>
+  </si>
+  <si>
+    <t>Retraite Acey 2011</t>
+  </si>
+  <si>
+    <t>Retraite Acey  2006 - 2010</t>
+  </si>
+  <si>
+    <t>Repas bénévole 2011</t>
+  </si>
+  <si>
+    <t>St-Nicolas - bricolages enfants</t>
+  </si>
+  <si>
+    <t>St-Nicolas</t>
+  </si>
+  <si>
+    <t>St-Nicolas - transport</t>
+  </si>
+  <si>
+    <t>St-Nicolas - buffet</t>
+  </si>
+  <si>
+    <t>St-Nicolas - pâtisserie</t>
+  </si>
+  <si>
+    <t>St-Nicolas - porcelaine</t>
+  </si>
+  <si>
+    <t>St-Nicolas - Responsables stand</t>
+  </si>
+  <si>
+    <t>St-Nicolas - écorce</t>
+  </si>
+  <si>
+    <t>St-Nicolas - décoration et divers</t>
+  </si>
+  <si>
+    <t>Cultes - Accueil, cène et offrande</t>
+  </si>
+  <si>
+    <t>Culte</t>
+  </si>
+  <si>
+    <t>Cultes - Café</t>
+  </si>
+  <si>
+    <t>Cultes - Cène</t>
+  </si>
+  <si>
+    <t>Cultes - Divers</t>
+  </si>
+  <si>
+    <t>Cultes - Fleuristes</t>
+  </si>
+  <si>
+    <t>Cultes - Lecteurs</t>
+  </si>
+  <si>
+    <t>Cultes - Marguillier, concierges et responsable Eglises</t>
+  </si>
+  <si>
+    <t>Cultes - Musicien(ne)s</t>
+  </si>
+  <si>
+    <t>Cultes - Offrandes Villages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration - Conseillers paroissiaux </t>
+  </si>
+  <si>
+    <t>Cultes - Pasteurs et diacres</t>
+  </si>
+  <si>
+    <t>Cultes - Services funèbres</t>
+  </si>
+  <si>
+    <t>Administration - Collaborateurs du Conseil Paroissial</t>
+  </si>
+  <si>
+    <t>Cultes - Remplaçants</t>
+  </si>
+  <si>
+    <t>Cultes - Cène à domicile</t>
+  </si>
+  <si>
+    <t>Annuaire / responsables-animateurs</t>
+  </si>
+  <si>
+    <t>Administration - Secrétariat paroissial</t>
+  </si>
+  <si>
+    <t>Cultes - Officiants Office de Taizé</t>
+  </si>
+  <si>
+    <t>Cultes - Officiants à Espace-Souffle</t>
+  </si>
+  <si>
+    <t>Cultes - Officiant "Prière et Danse"</t>
+  </si>
+  <si>
     <t>Administration - Bureau AP</t>
   </si>
   <si>
-    <t>Annuaire / responsables-animateurs</t>
+    <t>Administration - Délégués à l'AR</t>
+  </si>
+  <si>
+    <t>Administration - Bâtiments</t>
+  </si>
+  <si>
+    <t>Administration - Informatique, secrétariat</t>
+  </si>
+  <si>
+    <t>Administration - Relais "Bonne Nouvelle"</t>
+  </si>
+  <si>
+    <t>Entretien - Envoi  réservation locaux paroissiaux</t>
+  </si>
+  <si>
+    <t>Entretien - Nettoyage locaux paroissiaux</t>
+  </si>
+  <si>
+    <t>Entretien - Locaux paroissiaux</t>
+  </si>
+  <si>
+    <t>Groupe - Commission Suises-Etrangers</t>
+  </si>
+  <si>
+    <t>Groupe - Fondation de Beausobre et Jayet</t>
+  </si>
+  <si>
+    <t>Administration - Bureau du Conseil paroissial</t>
   </si>
   <si>
     <t>Administration - Commission de gestion</t>
   </si>
   <si>
-    <t>Administration - Bâtiments</t>
-  </si>
-  <si>
-    <t>Administration - Bureau du Conseil paroissial</t>
-  </si>
-  <si>
-    <t>Office de Taizé</t>
-  </si>
-  <si>
-    <t>Groupes morgiens d'origine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration - Conseillers paroissiaux </t>
-  </si>
-  <si>
-    <t>Cultes - Services funèbres</t>
-  </si>
-  <si>
-    <t>Culte</t>
-  </si>
-  <si>
-    <t>Parkings des Jardins - Locataires</t>
-  </si>
-  <si>
-    <t>Cultes - Pasteurs et diacres</t>
-  </si>
-  <si>
-    <t>Administration - Informatique, secrétariat</t>
-  </si>
-  <si>
-    <t>Administration - Délégués à l'AR</t>
-  </si>
-  <si>
-    <t>Entretien - Envoi  réservation locaux paroissiaux</t>
-  </si>
-  <si>
-    <t>Administration - Secrétariat paroissial</t>
-  </si>
-  <si>
-    <t>Alphalive 07 - Groupe 1</t>
-  </si>
-  <si>
-    <t>Adultes</t>
-  </si>
-  <si>
-    <t>Cathares 08</t>
-  </si>
-  <si>
-    <t>Camp 2000 - participants adultes-enfants</t>
-  </si>
-  <si>
-    <t>Culte de l'Enfance 1999-2000</t>
-  </si>
-  <si>
-    <t>Enfance</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2000-2001</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2001-2002</t>
-  </si>
-  <si>
-    <t>Culte de l'Enfance 2002-2003</t>
-  </si>
-  <si>
-    <t>Camp famille 2009</t>
-  </si>
-  <si>
-    <t>Enfance / CE moniteurs, monitrices</t>
-  </si>
-  <si>
-    <t>Eveil à la Foi - célébrations</t>
-  </si>
-  <si>
-    <t>Enfance / EF - moniteurs, monitrices</t>
-  </si>
-  <si>
-    <t>Aides occasionnelles KT 99/2000</t>
-  </si>
-  <si>
-    <t>Jeunesse</t>
-  </si>
-  <si>
-    <t>Catéchumènes Alliance 96/97/98/99/00</t>
-  </si>
-  <si>
-    <t>Animateurs PréKT 2003-2004</t>
-  </si>
-  <si>
-    <t>Eoliennes 98, Vaucluse 99, Corse 2000 et  Cévennes 97/98/2000/01</t>
-  </si>
-  <si>
-    <t>Animateurs et participants Cévennes 2002</t>
-  </si>
-  <si>
-    <t>Animateurs Cévennes 2003</t>
-  </si>
-  <si>
-    <t>Participants cycle "Le ciel est en toi"</t>
-  </si>
-  <si>
-    <t>Jeunes paroissiens</t>
-  </si>
-  <si>
-    <t>Catéchumènes 2001-2002</t>
-  </si>
-  <si>
-    <t>Jeunesse - Pasteur, diacre et secrétariat</t>
-  </si>
-  <si>
-    <t>Catéchumènes 3ème année 2000/2001</t>
-  </si>
-  <si>
-    <t>Anciens catéchumènes</t>
-  </si>
-  <si>
-    <t>Participants à la Fête de l'Alliance</t>
-  </si>
-  <si>
-    <t>Participants Fête de l'Alliance 2001</t>
-  </si>
-  <si>
-    <t>Participants Fête de l'Alliance 2002</t>
-  </si>
-  <si>
-    <t>Amis de la P2</t>
-  </si>
-  <si>
-    <t>Catéchumènes Rameaux 97/98/99/2000/01</t>
-  </si>
-  <si>
-    <t>Aînés de la paroisse</t>
-  </si>
-  <si>
-    <t>Aînés</t>
-  </si>
-  <si>
-    <t>Voyage sur les traces de Luther et Bach</t>
-  </si>
-  <si>
-    <t>Endeuillés 96-97</t>
-  </si>
-  <si>
-    <t>Voyage "Protestantisme en Europe" 2003</t>
+    <t>Groupe - Responsables "Soupes de Carême"</t>
   </si>
   <si>
     <t>Groupe - Espace Culturel des Terreaux</t>
   </si>
   <si>
-    <t>Anciens groupes veuvage 94-97</t>
-  </si>
-  <si>
-    <t>Voyage Traditions et Santons de Provence 2002</t>
-  </si>
-  <si>
-    <t>Groupe - Responsables visiteurs paroissiaux</t>
-  </si>
-  <si>
-    <t>Retraite des aînés Château d'Oex 10 - 12 juin 2003</t>
-  </si>
-  <si>
-    <t>FVP</t>
-  </si>
-  <si>
-    <t>Vieillir, Comprendre, Accompagner 2003-2004</t>
-  </si>
-  <si>
-    <t>Noël 2009</t>
-  </si>
-  <si>
-    <t>Camp Assise 2003</t>
-  </si>
-  <si>
-    <t>Camp Sommières 2001</t>
-  </si>
-  <si>
-    <t>Cultes - Accueil, cène et offrande</t>
-  </si>
-  <si>
-    <t>Cultes - Café</t>
-  </si>
-  <si>
-    <t>Cultes - Cène</t>
-  </si>
-  <si>
-    <t>Cultes - Divers</t>
-  </si>
-  <si>
-    <t>Cultes - Fleuristes</t>
-  </si>
-  <si>
-    <t>Noël 2007</t>
-  </si>
-  <si>
-    <t>Cultes - Lecteurs</t>
-  </si>
-  <si>
-    <t>Cultes - Marguillier, concierges et responsable Eglises</t>
-  </si>
-  <si>
-    <t>Cultes - Musicien(ne)s</t>
-  </si>
-  <si>
-    <t>Cultes - Offrandes Villages</t>
-  </si>
-  <si>
-    <t>Participants à Espace-Souffle</t>
-  </si>
-  <si>
-    <t>Groupe - Plateforme des Eglises chrétiennes</t>
-  </si>
-  <si>
-    <t>Cultes - Officiant "Prière et Danse"</t>
-  </si>
-  <si>
-    <t>Cultes - Officiants à Espace-Souffle</t>
-  </si>
-  <si>
-    <t>Groupes d'adultes</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle - Ouverture Monde</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle</t>
-  </si>
-  <si>
-    <t>Administration - Relais "Bonne Nouvelle"</t>
-  </si>
-  <si>
-    <t>Cultes - Officiants Office de Taizé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terre Nouvelle - Commission </t>
-  </si>
-  <si>
-    <t>Terre Nouvelle - donateurs</t>
-  </si>
-  <si>
-    <t>TN-Ouverture Monde/Externes</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle - Vente</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle - Responsables Vente</t>
-  </si>
-  <si>
-    <t>Dames pâtisseries</t>
-  </si>
-  <si>
-    <t>Mises sous pli - envoi en masse</t>
-  </si>
-  <si>
-    <t>Servir, ranger, vaisselle lors Fête Paroisse</t>
-  </si>
-  <si>
-    <t>St-Nicolas - bricolages enfants</t>
-  </si>
-  <si>
-    <t>St-Nicolas</t>
-  </si>
-  <si>
-    <t>St-Nicolas - buffet</t>
-  </si>
-  <si>
-    <t>St-Nicolas - couronnes</t>
-  </si>
-  <si>
-    <t>Veillée 2009-2010</t>
-  </si>
-  <si>
-    <t>St-Nicolas - pâtisserie</t>
-  </si>
-  <si>
-    <t>St-Nicolas - porcelaine</t>
-  </si>
-  <si>
-    <t>St-Nicolas - Responsables stand</t>
-  </si>
-  <si>
-    <t>Camp Tessin 2010</t>
-  </si>
-  <si>
-    <t>St-Nicolas - transport</t>
-  </si>
-  <si>
-    <t>Groupe - Fondation de Beausobre et Jayet</t>
-  </si>
-  <si>
-    <t>Groupe - Responsables "Soupes de Carême"</t>
-  </si>
-  <si>
-    <t>Contact pour fête de paroisse 2003</t>
-  </si>
-  <si>
-    <t>Groupe - Journée mondiale de prière</t>
-  </si>
-  <si>
-    <t>Responsables groupes paroissiaux</t>
-  </si>
-  <si>
-    <t>Groupe - Commission Suises-Etrangers</t>
-  </si>
-  <si>
-    <t>Cultes - Cène à domicile</t>
-  </si>
-  <si>
-    <t>Entretien - Locaux paroissiaux</t>
-  </si>
-  <si>
-    <t>Invitations pour fête de paroisse</t>
-  </si>
-  <si>
-    <t>Entretien - Nettoyage locaux paroissiaux</t>
-  </si>
-  <si>
-    <t>Anciens conseillers de paroisse</t>
-  </si>
-  <si>
-    <t>Anciens resp.gard., café, lect., concier., music., monit., St-Nic., page par.</t>
-  </si>
-  <si>
-    <t>Anciens pasteurs</t>
-  </si>
-  <si>
-    <t>Anciens suppléants</t>
-  </si>
-  <si>
-    <t>MARIAGES</t>
-  </si>
-  <si>
-    <t>REGISTRES PAROISSIAUX</t>
-  </si>
-  <si>
-    <t>SERVICES FUNEBRES</t>
-  </si>
-  <si>
-    <t>BENEDICTIONS DES CATECHUMENES</t>
-  </si>
-  <si>
-    <t>BAPTEMES</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2003-2004</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle - Ouverture sur le Monde</t>
-  </si>
-  <si>
-    <t>BENEDICTIONS DES PETITS ENFANTS</t>
-  </si>
-  <si>
-    <t>CE 12-13/ Echichens H. Della Casa</t>
-  </si>
-  <si>
-    <t>CE 12-13 / Monnaz E. Cornut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anciens Présidents </t>
-  </si>
-  <si>
-    <t>CE 12-13 / AM Köllmann</t>
-  </si>
-  <si>
-    <t>CE 12-13 / Colombier V. Grossenbacher</t>
-  </si>
-  <si>
-    <t>Culte de l'Enfance 2009-2010</t>
-  </si>
-  <si>
-    <t>Responsable Aînés</t>
-  </si>
-  <si>
-    <t>Envoi pub Spiritualité</t>
-  </si>
-  <si>
-    <t>Nonagénaires</t>
-  </si>
-  <si>
-    <t>Noël 2008</t>
-  </si>
-  <si>
-    <t>Administration - Collaborateurs du Conseil Paroissial</t>
-  </si>
-  <si>
-    <t>St-Nicolas - écorce</t>
-  </si>
-  <si>
-    <t>St-Nicolas - décoration et divers</t>
-  </si>
-  <si>
-    <t>Groupe - Choeur aînés</t>
-  </si>
-  <si>
-    <t>Alphalive - animateurs</t>
-  </si>
-  <si>
-    <t>M-Cumulus</t>
-  </si>
-  <si>
-    <t>Alpha Live 05 - participants</t>
-  </si>
-  <si>
-    <t>La Bible et nous</t>
-  </si>
-  <si>
-    <t>Cévennes 2005 - participants</t>
-  </si>
-  <si>
-    <t>Cévennes 2005 - animateurs</t>
-  </si>
-  <si>
-    <t>Chapelle - inauguration/responsables</t>
-  </si>
-  <si>
-    <t>Cultes - Garderie</t>
-  </si>
-  <si>
-    <t>Groupe - Gym des aînés</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2004-2005</t>
-  </si>
-  <si>
-    <t>Jeunesse - Alliance 2002</t>
-  </si>
-  <si>
-    <t>Jeunes Adultes</t>
-  </si>
-  <si>
-    <t>Coup de pouce 2005-lettres E-F+arrivées 01.07.04-31.07.05</t>
+    <t>Entretien - Extérieurs Chapelle</t>
+  </si>
+  <si>
+    <t>St-Nicolas - Responsables</t>
+  </si>
+  <si>
+    <t>Visiteuses - FVP - Responsable</t>
+  </si>
+  <si>
+    <t>Groupe - Président Fondation de Beausobre et Jayet</t>
   </si>
   <si>
     <t>Equipe Sapin</t>
@@ -484,136 +615,13 @@
     <t>Noël</t>
   </si>
   <si>
-    <t>Cultes - Remplaçants</t>
-  </si>
-  <si>
-    <t>Entretien - Extérieurs Chapelle</t>
-  </si>
-  <si>
-    <t>Envoi Noël 2010</t>
-  </si>
-  <si>
-    <t>Montmeyran 06</t>
-  </si>
-  <si>
-    <t>Culte de l'Enfance 2005-2006</t>
-  </si>
-  <si>
-    <t>Spiritualité 2004-2009</t>
-  </si>
-  <si>
-    <t>Repas bénévoles 2006</t>
-  </si>
-  <si>
-    <t>Coup de Pouce 2006 /arrivées 1.7.05-31.7.05 + lettres G-H-I</t>
-  </si>
-  <si>
-    <t>Alphalive 07 - Groupe 2</t>
-  </si>
-  <si>
-    <t>Cévennes 2007 - Participants</t>
-  </si>
-  <si>
-    <t>Cévennes 2007 - Animateurs</t>
-  </si>
-  <si>
-    <t>Taizé 07-08</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2006-2007</t>
-  </si>
-  <si>
-    <t>Coup de pouce 07/1.08.06-31.07.07+JKL</t>
-  </si>
-  <si>
-    <t>Désert 2008</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2007-2008</t>
-  </si>
-  <si>
-    <t>2010 - 2011 La Bible et nous</t>
-  </si>
-  <si>
-    <t>Noël Aînés 2011</t>
-  </si>
-  <si>
-    <t>Désert 2010</t>
-  </si>
-  <si>
-    <t>2010  - 2011 Parler de la mort , c'est parler de la vie</t>
-  </si>
-  <si>
-    <t>Désert 2009</t>
-  </si>
-  <si>
-    <t>Coup de pouce 1.8.07 au 31.7.08+M</t>
-  </si>
-  <si>
-    <t>Noël 2010</t>
-  </si>
-  <si>
-    <t>Acey CE 2009</t>
-  </si>
-  <si>
-    <t>Voeux 09</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2008-2009</t>
-  </si>
-  <si>
-    <t>Repas bénéboles 2009</t>
-  </si>
-  <si>
     <t>Petites mains</t>
   </si>
   <si>
     <t>Secrétariat</t>
   </si>
   <si>
-    <t>2010 - 2011 Autour d'un livre</t>
-  </si>
-  <si>
-    <t>2010 - 2011 Matinée Lectio Divina</t>
-  </si>
-  <si>
-    <t>Adieux NB - mars 2010</t>
-  </si>
-  <si>
-    <t>Adieux NB - Repas/Inscriptions</t>
-  </si>
-  <si>
-    <t>Retraite Acey 2011</t>
-  </si>
-  <si>
-    <t>Retraite Acey  2006 - 2010</t>
-  </si>
-  <si>
-    <t>Repas bénévole 2011</t>
-  </si>
-  <si>
-    <t>Groupe - Président Fondation de Beausobre et Jayet</t>
-  </si>
-  <si>
-    <t>CE 12-13 / C. Arn</t>
-  </si>
-  <si>
-    <t>Noël Aînés 2012</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle - Responsables</t>
-  </si>
-  <si>
-    <t>Culte de l'Enfance 2011-2012</t>
-  </si>
-  <si>
-    <t>Culte de l'enfance 2010-2011</t>
-  </si>
-  <si>
-    <t>St-Nicolas - Responsables</t>
-  </si>
-  <si>
-    <t>Visiteuses - FVP - Responsable</t>
+    <t>Inconnu</t>
   </si>
 </sst>
 </file>
@@ -657,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -680,15 +688,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -698,9 +703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +743,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -810,7 +815,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,20 +847,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -977,20 +978,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1014,19 +1054,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>4030000211</v>
-      </c>
-      <c r="B2" s="8">
+        <v>4030000007</v>
+      </c>
+      <c r="B2" s="3">
         <v>2040000000</v>
       </c>
       <c r="C2" s="4">
-        <v>4030010002</v>
+        <v>305020101</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -1034,19 +1074,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>4030000245</v>
-      </c>
-      <c r="B3" s="8">
+        <v>4030000014</v>
+      </c>
+      <c r="B3" s="3">
         <v>2040000000</v>
       </c>
       <c r="C3" s="4">
-        <v>4030010003</v>
+        <v>305020102</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
@@ -1054,19 +1094,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>4030000228</v>
-      </c>
-      <c r="B4" s="8">
+        <v>4030000028</v>
+      </c>
+      <c r="B4" s="3">
         <v>2040000000</v>
       </c>
       <c r="C4" s="4">
-        <v>4030010004</v>
+        <v>305020103</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
@@ -1074,19 +1114,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4030000244</v>
-      </c>
-      <c r="B5" s="8">
+        <v>4030000033</v>
+      </c>
+      <c r="B5" s="3">
         <v>2040000000</v>
       </c>
       <c r="C5" s="4">
-        <v>4030010005</v>
+        <v>305020104</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
@@ -1094,39 +1134,39 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>4030000007</v>
-      </c>
-      <c r="B6" s="8">
+        <v>4030000034</v>
+      </c>
+      <c r="B6" s="3">
         <v>2040000000</v>
       </c>
       <c r="C6" s="4">
-        <v>4030010008</v>
+        <v>305020105</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6">
-        <v>4030000001</v>
+        <v>305020100</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4030000186</v>
-      </c>
-      <c r="B7" s="8">
+        <v>4030000036</v>
+      </c>
+      <c r="B7" s="3">
         <v>2040000000</v>
       </c>
       <c r="C7" s="4">
-        <v>4030010013</v>
+        <v>305020106</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
@@ -1134,59 +1174,59 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>4030000192</v>
-      </c>
-      <c r="B8" s="8">
+        <v>4030000037</v>
+      </c>
+      <c r="B8" s="3">
         <v>2040000000</v>
       </c>
       <c r="C8" s="4">
-        <v>4030010014</v>
+        <v>305020107</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
-        <v>4030000011</v>
+        <v>305020100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>4030000014</v>
-      </c>
-      <c r="B9" s="8">
+        <v>4030000038</v>
+      </c>
+      <c r="B9" s="3">
         <v>2040000000</v>
       </c>
       <c r="C9" s="4">
-        <v>4030010015</v>
+        <v>305020108</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6">
-        <v>4030000001</v>
+        <v>305020100</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>4030000185</v>
-      </c>
-      <c r="B10" s="8">
+        <v>4030000039</v>
+      </c>
+      <c r="B10" s="3">
         <v>2040000000</v>
       </c>
       <c r="C10" s="4">
-        <v>4030010016</v>
+        <v>305020109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -1194,19 +1234,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>4030000229</v>
-      </c>
-      <c r="B11" s="8">
+        <v>4030000040</v>
+      </c>
+      <c r="B11" s="3">
         <v>2040000000</v>
       </c>
       <c r="C11" s="4">
-        <v>4030010018</v>
+        <v>305020110</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
@@ -1214,19 +1254,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>4030000212</v>
-      </c>
-      <c r="B12" s="8">
+        <v>4030000041</v>
+      </c>
+      <c r="B12" s="3">
         <v>2040000000</v>
       </c>
       <c r="C12" s="4">
-        <v>4030010020</v>
+        <v>305020111</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
@@ -1234,19 +1274,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>4030000231</v>
-      </c>
-      <c r="B13" s="8">
+        <v>4030000043</v>
+      </c>
+      <c r="B13" s="3">
         <v>2040000000</v>
       </c>
       <c r="C13" s="4">
-        <v>4030010021</v>
+        <v>305020112</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>7</v>
@@ -1254,19 +1294,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>4030000189</v>
-      </c>
-      <c r="B14" s="8">
+        <v>4030000044</v>
+      </c>
+      <c r="B14" s="3">
         <v>2040000000</v>
       </c>
       <c r="C14" s="4">
-        <v>4030010022</v>
+        <v>305020113</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
@@ -1274,219 +1314,219 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>4030000322</v>
-      </c>
-      <c r="B15" s="8">
+        <v>4030000049</v>
+      </c>
+      <c r="B15" s="3">
         <v>2040000000</v>
       </c>
       <c r="C15" s="4">
-        <v>4030010029</v>
+        <v>305020114</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6">
-        <v>4030000008</v>
+        <v>305020100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>4030000340</v>
-      </c>
-      <c r="B16" s="8">
+        <v>4030000064</v>
+      </c>
+      <c r="B16" s="3">
         <v>2040000000</v>
       </c>
       <c r="C16" s="4">
-        <v>4030010031</v>
+        <v>305020115</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6">
-        <v>4030000008</v>
+        <v>305020100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>4030000028</v>
-      </c>
-      <c r="B17" s="8">
+        <v>4030000065</v>
+      </c>
+      <c r="B17" s="3">
         <v>2040000000</v>
       </c>
       <c r="C17" s="4">
-        <v>4030010033</v>
+        <v>305020116</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6">
-        <v>4030000001</v>
+        <v>305020100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>4030000116</v>
-      </c>
-      <c r="B18" s="8">
+        <v>4030000069</v>
+      </c>
+      <c r="B18" s="3">
         <v>2040000000</v>
       </c>
       <c r="C18" s="4">
-        <v>4030010034</v>
+        <v>305020117</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>4030000117</v>
-      </c>
-      <c r="B19" s="8">
+        <v>4030000072</v>
+      </c>
+      <c r="B19" s="3">
         <v>2040000000</v>
       </c>
       <c r="C19" s="4">
-        <v>4030010035</v>
+        <v>305020118</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>4030000118</v>
-      </c>
-      <c r="B20" s="8">
+        <v>4030000073</v>
+      </c>
+      <c r="B20" s="3">
         <v>2040000000</v>
       </c>
       <c r="C20" s="4">
-        <v>4030010036</v>
+        <v>305020119</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>4030000119</v>
-      </c>
-      <c r="B21" s="8">
+        <v>4030000074</v>
+      </c>
+      <c r="B21" s="3">
         <v>2040000000</v>
       </c>
       <c r="C21" s="4">
-        <v>4030010037</v>
+        <v>305020120</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>4030000121</v>
-      </c>
-      <c r="B22" s="8">
+        <v>4030000078</v>
+      </c>
+      <c r="B22" s="3">
         <v>2040000000</v>
       </c>
       <c r="C22" s="4">
-        <v>4030010038</v>
+        <v>305020121</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E22" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>4030000133</v>
-      </c>
-      <c r="B23" s="8">
+        <v>4030000087</v>
+      </c>
+      <c r="B23" s="3">
         <v>2040000000</v>
       </c>
       <c r="C23" s="4">
-        <v>4030010039</v>
+        <v>305020122</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>4030000120</v>
-      </c>
-      <c r="B24" s="8">
+        <v>4030000088</v>
+      </c>
+      <c r="B24" s="3">
         <v>2040000000</v>
       </c>
       <c r="C24" s="4">
-        <v>4030010042</v>
+        <v>305020123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E24" s="6">
-        <v>4030000005</v>
+        <v>305020100</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>4030000218</v>
-      </c>
-      <c r="B25" s="8">
+        <v>4030000090</v>
+      </c>
+      <c r="B25" s="3">
         <v>2040000000</v>
       </c>
       <c r="C25" s="4">
-        <v>4030010043</v>
+        <v>305020124</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E25" s="6">
-        <v>4030000012</v>
+        <v>305020100</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>7</v>
@@ -1494,3829 +1534,3830 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>4030000109</v>
-      </c>
-      <c r="B26" s="8">
+        <v>4030000094</v>
+      </c>
+      <c r="B26" s="3">
         <v>2040000000</v>
       </c>
       <c r="C26" s="4">
-        <v>4030010045</v>
+        <v>305020125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" s="6">
-        <v>4030000002</v>
+        <v>305020100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>4030000127</v>
-      </c>
-      <c r="B27" s="8">
+        <v>4030000098</v>
+      </c>
+      <c r="B27" s="3">
         <v>2040000000</v>
       </c>
       <c r="C27" s="4">
-        <v>4030010046</v>
+        <v>305020126</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6">
-        <v>4030000002</v>
+        <v>305020100</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>4030000107</v>
-      </c>
-      <c r="B28" s="8">
+        <v>4030000099</v>
+      </c>
+      <c r="B28" s="3">
         <v>2040000000</v>
       </c>
       <c r="C28" s="4">
-        <v>4030010049</v>
+        <v>305020127</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E28" s="6">
-        <v>4030000002</v>
+        <v>305020100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>4030000132</v>
-      </c>
-      <c r="B29" s="8">
+        <v>4030000100</v>
+      </c>
+      <c r="B29" s="3">
         <v>2040000000</v>
       </c>
       <c r="C29" s="4">
-        <v>4030010050</v>
+        <v>305020128</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E29" s="6">
-        <v>4030000002</v>
+        <v>305020100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>4030000110</v>
-      </c>
-      <c r="B30" s="8">
+        <v>4030000101</v>
+      </c>
+      <c r="B30" s="3">
         <v>2040000000</v>
       </c>
       <c r="C30" s="4">
-        <v>4030010051</v>
+        <v>305020129</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E30" s="6">
-        <v>4030000002</v>
+        <v>305020100</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>4030000102</v>
-      </c>
-      <c r="B31" s="8">
+        <v>4030000262</v>
+      </c>
+      <c r="B31" s="3">
         <v>2040000000</v>
       </c>
       <c r="C31" s="4">
-        <v>4030010052</v>
+        <v>305020130</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E31" s="6">
-        <v>4030000002</v>
+        <v>305020100</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>4030000033</v>
-      </c>
-      <c r="B32" s="8">
+        <v>4030000298</v>
+      </c>
+      <c r="B32" s="3">
         <v>2040000000</v>
       </c>
       <c r="C32" s="4">
-        <v>4030010053</v>
+        <v>305020131</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E32" s="6">
-        <v>4030000001</v>
+        <v>305020100</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>4030000034</v>
-      </c>
-      <c r="B33" s="8">
+        <v>4030000116</v>
+      </c>
+      <c r="B33" s="3">
         <v>2040000000</v>
       </c>
       <c r="C33" s="4">
-        <v>4030010054</v>
+        <v>305020201</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>4030000125</v>
-      </c>
-      <c r="B34" s="8">
+        <v>4030000117</v>
+      </c>
+      <c r="B34" s="3">
         <v>2040000000</v>
       </c>
       <c r="C34" s="4">
-        <v>4030010055</v>
+        <v>305020202</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6">
-        <v>4030000002</v>
+        <v>305020200</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>4030000254</v>
-      </c>
-      <c r="B35" s="8">
+        <v>4030000118</v>
+      </c>
+      <c r="B35" s="3">
         <v>2040000000</v>
       </c>
       <c r="C35" s="4">
-        <v>4030010056</v>
+        <v>305020203</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E35" s="6">
-        <v>4030000002</v>
+        <v>305020200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>4030000126</v>
-      </c>
-      <c r="B36" s="8">
+        <v>4030000119</v>
+      </c>
+      <c r="B36" s="3">
         <v>2040000000</v>
       </c>
       <c r="C36" s="4">
-        <v>4030010057</v>
+        <v>305020204</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E36" s="6">
-        <v>4030000002</v>
+        <v>305020200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>4030000105</v>
-      </c>
-      <c r="B37" s="8">
+        <v>4030000121</v>
+      </c>
+      <c r="B37" s="3">
         <v>2040000000</v>
       </c>
       <c r="C37" s="4">
-        <v>4030010058</v>
+        <v>305020205</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6">
-        <v>4030000002</v>
+        <v>305020200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>4030000036</v>
-      </c>
-      <c r="B38" s="8">
+        <v>4030000133</v>
+      </c>
+      <c r="B38" s="3">
         <v>2040000000</v>
       </c>
       <c r="C38" s="4">
-        <v>4030010061</v>
+        <v>305020206</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E38" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>4030000037</v>
-      </c>
-      <c r="B39" s="8">
+        <v>4030000120</v>
+      </c>
+      <c r="B39" s="3">
         <v>2040000000</v>
       </c>
       <c r="C39" s="4">
-        <v>4030010062</v>
+        <v>305020207</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E39" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>4030000038</v>
-      </c>
-      <c r="B40" s="8">
+        <v>4030000134</v>
+      </c>
+      <c r="B40" s="3">
         <v>2040000000</v>
       </c>
       <c r="C40" s="4">
-        <v>4030010063</v>
+        <v>305020208</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E40" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>4030000106</v>
-      </c>
-      <c r="B41" s="8">
+        <v>4030000149</v>
+      </c>
+      <c r="B41" s="3">
         <v>2040000000</v>
       </c>
       <c r="C41" s="4">
-        <v>4030010064</v>
+        <v>305020209</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E41" s="6">
-        <v>4030000002</v>
+        <v>305020200</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>4030000128</v>
-      </c>
-      <c r="B42" s="8">
+        <v>4030000150</v>
+      </c>
+      <c r="B42" s="3">
         <v>2040000000</v>
       </c>
       <c r="C42" s="4">
-        <v>4030010065</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>52</v>
+        <v>305020210</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="E42" s="6">
-        <v>4030000002</v>
+        <v>305020200</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>4030000135</v>
-      </c>
-      <c r="B43" s="8">
+        <v>4030000151</v>
+      </c>
+      <c r="B43" s="3">
         <v>2040000000</v>
       </c>
       <c r="C43" s="4">
-        <v>4030010066</v>
+        <v>305020211</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E43" s="6">
-        <v>4030000006</v>
+        <v>305020200</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>4030000039</v>
-      </c>
-      <c r="B44" s="8">
+        <v>4030000152</v>
+      </c>
+      <c r="B44" s="3">
         <v>2040000000</v>
       </c>
       <c r="C44" s="4">
-        <v>4030010067</v>
+        <v>305020212</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E44" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>4030000040</v>
-      </c>
-      <c r="B45" s="8">
+        <v>4030000155</v>
+      </c>
+      <c r="B45" s="3">
         <v>2040000000</v>
       </c>
       <c r="C45" s="4">
-        <v>4030010069</v>
+        <v>305020213</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>4030000041</v>
-      </c>
-      <c r="B46" s="8">
+        <v>4030000219</v>
+      </c>
+      <c r="B46" s="3">
         <v>2040000000</v>
       </c>
       <c r="C46" s="4">
-        <v>4030010070</v>
+        <v>305020214</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>4030000276</v>
-      </c>
-      <c r="B47" s="8">
+        <v>4030000253</v>
+      </c>
+      <c r="B47" s="3">
         <v>2040000000</v>
       </c>
       <c r="C47" s="4">
-        <v>4030010072</v>
+        <v>305020215</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6">
-        <v>4030000012</v>
+        <v>305020200</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>4030000043</v>
-      </c>
-      <c r="B48" s="8">
+        <v>4030000299</v>
+      </c>
+      <c r="B48" s="3">
         <v>2040000000</v>
       </c>
       <c r="C48" s="4">
-        <v>4030010073</v>
+        <v>305020216</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>4030000044</v>
-      </c>
-      <c r="B49" s="8">
+        <v>4030000313</v>
+      </c>
+      <c r="B49" s="3">
         <v>2040000000</v>
       </c>
       <c r="C49" s="4">
-        <v>4030010074</v>
+        <v>305020217</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>4030000227</v>
-      </c>
-      <c r="B50" s="8">
+        <v>4030000317</v>
+      </c>
+      <c r="B50" s="3">
         <v>2040000000</v>
       </c>
       <c r="C50" s="4">
-        <v>4030010075</v>
+        <v>305020218</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E50" s="6">
-        <v>4030000006</v>
+        <v>305020200</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>4030000138</v>
-      </c>
-      <c r="B51" s="8">
+        <v>4030000331</v>
+      </c>
+      <c r="B51" s="3">
         <v>2040000000</v>
       </c>
       <c r="C51" s="4">
-        <v>4030010076</v>
+        <v>305020219</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E51" s="6">
-        <v>4030000006</v>
+        <v>305020200</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>4030000139</v>
-      </c>
-      <c r="B52" s="8">
+        <v>4030000341</v>
+      </c>
+      <c r="B52" s="3">
         <v>2040000000</v>
       </c>
       <c r="C52" s="4">
-        <v>4030010077</v>
+        <v>305020220</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6">
-        <v>4030000006</v>
+        <v>305020200</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>4030000140</v>
-      </c>
-      <c r="B53" s="8">
+        <v>4030000353</v>
+      </c>
+      <c r="B53" s="3">
         <v>2040000000</v>
       </c>
       <c r="C53" s="4">
-        <v>4030010078</v>
+        <v>305020221</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E53" s="6">
-        <v>4030000006</v>
+        <v>305020200</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>4030000361</v>
-      </c>
-      <c r="B54" s="8">
+        <v>4030000356</v>
+      </c>
+      <c r="B54" s="3">
         <v>2040000000</v>
       </c>
       <c r="C54" s="4">
-        <v>4030010080</v>
+        <v>305020222</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E54" s="6">
-        <v>4030000006</v>
+        <v>305020200</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>4030000162</v>
-      </c>
-      <c r="B55" s="8">
+        <v>4030000376</v>
+      </c>
+      <c r="B55" s="3">
         <v>2040000000</v>
       </c>
       <c r="C55" s="4">
-        <v>4030010082</v>
+        <v>305020223</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E55" s="6">
-        <v>4030000008</v>
+        <v>305020200</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>4030000049</v>
-      </c>
-      <c r="B56" s="8">
+        <v>4030000380</v>
+      </c>
+      <c r="B56" s="3">
         <v>2040000000</v>
       </c>
       <c r="C56" s="4">
-        <v>4030010083</v>
+        <v>305020224</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E56" s="6">
-        <v>4030000001</v>
+        <v>305020200</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>4030000174</v>
-      </c>
-      <c r="B57" s="8">
+        <v>4030000381</v>
+      </c>
+      <c r="B57" s="3">
         <v>2040000000</v>
       </c>
       <c r="C57" s="4">
-        <v>4030010086</v>
+        <v>305020225</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E57" s="6">
-        <v>4030000011</v>
+        <v>305020200</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>4030000175</v>
-      </c>
-      <c r="B58" s="8">
+        <v>4030000109</v>
+      </c>
+      <c r="B58" s="3">
         <v>2040000000</v>
       </c>
       <c r="C58" s="4">
-        <v>4030010087</v>
+        <v>305020301</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E58" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>4030000176</v>
-      </c>
-      <c r="B59" s="8">
+        <v>4030000127</v>
+      </c>
+      <c r="B59" s="3">
         <v>2040000000</v>
       </c>
       <c r="C59" s="4">
-        <v>4030010088</v>
+        <v>305020302</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E59" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>4030000177</v>
-      </c>
-      <c r="B60" s="8">
+        <v>4030000107</v>
+      </c>
+      <c r="B60" s="3">
         <v>2040000000</v>
       </c>
       <c r="C60" s="4">
-        <v>4030010090</v>
+        <v>305020303</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E60" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>4030000178</v>
-      </c>
-      <c r="B61" s="8">
+        <v>4030000132</v>
+      </c>
+      <c r="B61" s="3">
         <v>2040000000</v>
       </c>
       <c r="C61" s="4">
-        <v>4030010091</v>
+        <v>305020304</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E61" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>4030000163</v>
-      </c>
-      <c r="B62" s="8">
+        <v>4030000110</v>
+      </c>
+      <c r="B62" s="3">
         <v>2040000000</v>
       </c>
       <c r="C62" s="4">
-        <v>4030010092</v>
+        <v>305020305</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E62" s="6">
-        <v>4030000006</v>
+        <v>305020300</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>4030000180</v>
-      </c>
-      <c r="B63" s="8">
+        <v>4030000102</v>
+      </c>
+      <c r="B63" s="3">
         <v>2040000000</v>
       </c>
       <c r="C63" s="4">
-        <v>4030010094</v>
+        <v>305020306</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E63" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>4030000181</v>
-      </c>
-      <c r="B64" s="8">
+        <v>4030000125</v>
+      </c>
+      <c r="B64" s="3">
         <v>2040000000</v>
       </c>
       <c r="C64" s="4">
-        <v>4030010095</v>
+        <v>305020307</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E64" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>4030000182</v>
-      </c>
-      <c r="B65" s="8">
+        <v>4030000126</v>
+      </c>
+      <c r="B65" s="3">
         <v>2040000000</v>
       </c>
       <c r="C65" s="4">
-        <v>4030010096</v>
+        <v>305020308</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E65" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>4030000183</v>
-      </c>
-      <c r="B66" s="8">
+        <v>4030000105</v>
+      </c>
+      <c r="B66" s="3">
         <v>2040000000</v>
       </c>
       <c r="C66" s="4">
-        <v>4030010097</v>
+        <v>305020309</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E66" s="6">
-        <v>4030000011</v>
+        <v>305020300</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>4030000064</v>
-      </c>
-      <c r="B67" s="8">
+        <v>4030000106</v>
+      </c>
+      <c r="B67" s="3">
         <v>2040000000</v>
       </c>
       <c r="C67" s="4">
-        <v>4030010098</v>
+        <v>305020310</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E67" s="6">
-        <v>4030000001</v>
+        <v>305020300</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>4030000065</v>
-      </c>
-      <c r="B68" s="8">
+        <v>4030000128</v>
+      </c>
+      <c r="B68" s="3">
         <v>2040000000</v>
       </c>
       <c r="C68" s="4">
-        <v>4030010099</v>
+        <v>305020311</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E68" s="6">
-        <v>4030000001</v>
+        <v>305020300</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>4030000209</v>
-      </c>
-      <c r="B69" s="8">
+        <v>4030000254</v>
+      </c>
+      <c r="B69" s="3">
         <v>2040000000</v>
       </c>
       <c r="C69" s="4">
-        <v>4030010100</v>
+        <v>305020312</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E69" s="6">
-        <v>4030000012</v>
+        <v>305020300</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>4030000208</v>
-      </c>
-      <c r="B70" s="8">
+        <v>4030000291</v>
+      </c>
+      <c r="B70" s="3">
         <v>2040000000</v>
       </c>
       <c r="C70" s="4">
-        <v>4030010101</v>
+        <v>305020313</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E70" s="6">
-        <v>4030000012</v>
+        <v>305020300</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>4030000069</v>
-      </c>
-      <c r="B71" s="8">
+        <v>4030000292</v>
+      </c>
+      <c r="B71" s="3">
         <v>2040000000</v>
       </c>
       <c r="C71" s="4">
-        <v>4030010103</v>
+        <v>305020314</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E71" s="6">
-        <v>4030000001</v>
+        <v>305020300</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>4030000146</v>
-      </c>
-      <c r="B72" s="8">
+        <v>4030000300</v>
+      </c>
+      <c r="B72" s="3">
         <v>2040000000</v>
       </c>
       <c r="C72" s="4">
-        <v>4030010104</v>
+        <v>305020315</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E72" s="6">
-        <v>4030000007</v>
+        <v>305020300</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>4030000230</v>
-      </c>
-      <c r="B73" s="8">
+        <v>4030000326</v>
+      </c>
+      <c r="B73" s="3">
         <v>2040000000</v>
       </c>
       <c r="C73" s="4">
-        <v>4030010105</v>
+        <v>305020316</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E73" s="6">
-        <v>4030000012</v>
+        <v>305020300</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>4030000207</v>
-      </c>
-      <c r="B74" s="8">
+        <v>4030000327</v>
+      </c>
+      <c r="B74" s="3">
         <v>2040000000</v>
       </c>
       <c r="C74" s="4">
-        <v>4030010106</v>
+        <v>305020317</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E74" s="6">
-        <v>4030000012</v>
+        <v>305020300</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>4030000142</v>
-      </c>
-      <c r="B75" s="8">
+        <v>4030000336</v>
+      </c>
+      <c r="B75" s="3">
         <v>2040000000</v>
       </c>
       <c r="C75" s="4">
-        <v>4030010107</v>
+        <v>305020318</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E75" s="6">
-        <v>4030000007</v>
+        <v>305020300</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>4030000143</v>
-      </c>
-      <c r="B76" s="8">
+        <v>4030000135</v>
+      </c>
+      <c r="B76" s="3">
         <v>2040000000</v>
       </c>
       <c r="C76" s="4">
-        <v>4030010108</v>
+        <v>305020401</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E76" s="6">
-        <v>4030000007</v>
+        <v>305020400</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>4030000145</v>
-      </c>
-      <c r="B77" s="8">
+        <v>4030000138</v>
+      </c>
+      <c r="B77" s="3">
         <v>2040000000</v>
       </c>
       <c r="C77" s="4">
-        <v>4030010109</v>
+        <v>305020402</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E77" s="6">
-        <v>4030000007</v>
+        <v>305020400</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>4030000144</v>
-      </c>
-      <c r="B78" s="8">
+        <v>4030000139</v>
+      </c>
+      <c r="B78" s="3">
         <v>2040000000</v>
       </c>
       <c r="C78" s="4">
-        <v>4030010110</v>
+        <v>305020403</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E78" s="6">
-        <v>4030000007</v>
+        <v>305020400</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>4030000141</v>
-      </c>
-      <c r="B79" s="8">
+        <v>4030000140</v>
+      </c>
+      <c r="B79" s="3">
         <v>2040000000</v>
       </c>
       <c r="C79" s="4">
-        <v>4030010111</v>
+        <v>305020404</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E79" s="6">
-        <v>4030000007</v>
+        <v>305020400</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>4030000072</v>
-      </c>
-      <c r="B80" s="8">
+        <v>4030000156</v>
+      </c>
+      <c r="B80" s="3">
         <v>2040000000</v>
       </c>
       <c r="C80" s="4">
-        <v>4030010112</v>
+        <v>305020405</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E80" s="6">
-        <v>4030000001</v>
+        <v>305020400</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>4030000073</v>
-      </c>
-      <c r="B81" s="8">
+        <v>4030000163</v>
+      </c>
+      <c r="B81" s="3">
         <v>2040000000</v>
       </c>
       <c r="C81" s="4">
-        <v>4030010113</v>
+        <v>305020406</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E81" s="6">
-        <v>4030000001</v>
+        <v>305020400</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>4030000074</v>
-      </c>
-      <c r="B82" s="8">
+        <v>4030000164</v>
+      </c>
+      <c r="B82" s="3">
         <v>2040000000</v>
       </c>
       <c r="C82" s="4">
-        <v>4030010114</v>
+        <v>305020407</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E82" s="6">
-        <v>4030000001</v>
+        <v>305020400</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>4030000159</v>
-      </c>
-      <c r="B83" s="8">
+        <v>4030000167</v>
+      </c>
+      <c r="B83" s="3">
         <v>2040000000</v>
       </c>
       <c r="C83" s="4">
-        <v>4030010116</v>
+        <v>305020408</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E83" s="6">
-        <v>4030000009</v>
+        <v>305020400</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>4030000168</v>
-      </c>
-      <c r="B84" s="8">
+        <v>4030000227</v>
+      </c>
+      <c r="B84" s="3">
         <v>2040000000</v>
       </c>
       <c r="C84" s="4">
-        <v>4030010117</v>
+        <v>305020409</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E84" s="6">
-        <v>4030000009</v>
+        <v>305020400</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>4030000078</v>
-      </c>
-      <c r="B85" s="8">
+        <v>4030000279</v>
+      </c>
+      <c r="B85" s="3">
         <v>2040000000</v>
       </c>
       <c r="C85" s="4">
-        <v>4030010118</v>
+        <v>305020410</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E85" s="6">
-        <v>4030000001</v>
+        <v>305020400</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>4030000366</v>
-      </c>
-      <c r="B86" s="8">
+        <v>4030000361</v>
+      </c>
+      <c r="B86" s="3">
         <v>2040000000</v>
       </c>
       <c r="C86" s="4">
-        <v>4030010119</v>
+        <v>305020411</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E86" s="6">
-        <v>4030000008</v>
+        <v>305020400</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>4030000170</v>
-      </c>
-      <c r="B87" s="8">
+        <v>4030000369</v>
+      </c>
+      <c r="B87" s="3">
         <v>2040000000</v>
       </c>
       <c r="C87" s="4">
-        <v>4030010120</v>
+        <v>305020412</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E87" s="6">
-        <v>4030000009</v>
+        <v>305020400</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>4030000171</v>
-      </c>
-      <c r="B88" s="8">
+        <v>4030000370</v>
+      </c>
+      <c r="B88" s="3">
         <v>2040000000</v>
       </c>
       <c r="C88" s="4">
-        <v>4030010121</v>
+        <v>305020413</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E88" s="6">
-        <v>4030000009</v>
+        <v>305020400</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>4030000172</v>
-      </c>
-      <c r="B89" s="8">
+        <v>4030000377</v>
+      </c>
+      <c r="B89" s="3">
         <v>2040000000</v>
       </c>
       <c r="C89" s="4">
-        <v>4030010122</v>
+        <v>305020414</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E89" s="6">
-        <v>4030000009</v>
+        <v>305020400</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>4030000362</v>
-      </c>
-      <c r="B90" s="8">
+        <v>4030000382</v>
+      </c>
+      <c r="B90" s="3">
         <v>2040000000</v>
       </c>
       <c r="C90" s="4">
-        <v>4030010123</v>
+        <v>305020415</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E90" s="6">
-        <v>4030000008</v>
+        <v>305020400</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>4030000161</v>
-      </c>
-      <c r="B91" s="8">
+        <v>4030000146</v>
+      </c>
+      <c r="B91" s="3">
         <v>2040000000</v>
       </c>
       <c r="C91" s="4">
-        <v>4030010124</v>
+        <v>305020501</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E91" s="6">
-        <v>4030000009</v>
+        <v>305020500</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>4030000243</v>
-      </c>
-      <c r="B92" s="8">
+        <v>4030000142</v>
+      </c>
+      <c r="B92" s="3">
         <v>2040000000</v>
       </c>
       <c r="C92" s="4">
-        <v>4030010125</v>
+        <v>305020502</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E92" s="6">
-        <v>4030000012</v>
+        <v>305020500</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>4030000246</v>
-      </c>
-      <c r="B93" s="8">
+        <v>4030000143</v>
+      </c>
+      <c r="B93" s="3">
         <v>2040000000</v>
       </c>
       <c r="C93" s="4">
-        <v>4030010126</v>
+        <v>305020503</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E93" s="6">
-        <v>4030000012</v>
+        <v>305020500</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>4030000087</v>
-      </c>
-      <c r="B94" s="8">
+        <v>4030000145</v>
+      </c>
+      <c r="B94" s="3">
         <v>2040000000</v>
       </c>
       <c r="C94" s="4">
-        <v>4030010127</v>
+        <v>305020504</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E94" s="6">
-        <v>4030000001</v>
+        <v>305020500</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>4030000088</v>
-      </c>
-      <c r="B95" s="8">
+        <v>4030000144</v>
+      </c>
+      <c r="B95" s="3">
         <v>2040000000</v>
       </c>
       <c r="C95" s="4">
-        <v>4030010128</v>
+        <v>305020505</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E95" s="6">
-        <v>4030000001</v>
+        <v>305020500</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>4030000090</v>
-      </c>
-      <c r="B96" s="8">
+        <v>4030000141</v>
+      </c>
+      <c r="B96" s="3">
         <v>2040000000</v>
       </c>
       <c r="C96" s="4">
-        <v>4030010130</v>
+        <v>305020506</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E96" s="6">
-        <v>4030000001</v>
+        <v>305020500</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>4030000242</v>
-      </c>
-      <c r="B97" s="8">
+        <v>4030000147</v>
+      </c>
+      <c r="B97" s="3">
         <v>2040000000</v>
       </c>
       <c r="C97" s="4">
-        <v>4030010131</v>
+        <v>305020507</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E97" s="6">
-        <v>4030000012</v>
+        <v>305020500</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>4030000241</v>
-      </c>
-      <c r="B98" s="8">
+        <v>4030000305</v>
+      </c>
+      <c r="B98" s="3">
         <v>2040000000</v>
       </c>
       <c r="C98" s="4">
-        <v>4030010132</v>
+        <v>305020508</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E98" s="6">
-        <v>4030000012</v>
+        <v>305020500</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>4030000233</v>
-      </c>
-      <c r="B99" s="8">
+        <v>4030000321</v>
+      </c>
+      <c r="B99" s="3">
         <v>2040000000</v>
       </c>
       <c r="C99" s="4">
-        <v>4030010133</v>
+        <v>305020509</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E99" s="6">
-        <v>4030000012</v>
+        <v>305020500</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>4030000094</v>
-      </c>
-      <c r="B100" s="8">
+        <v>4030000334</v>
+      </c>
+      <c r="B100" s="3">
         <v>2040000000</v>
       </c>
       <c r="C100" s="4">
-        <v>4030010134</v>
+        <v>305020510</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E100" s="6">
-        <v>4030000001</v>
+        <v>305020500</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>4030000232</v>
-      </c>
-      <c r="B101" s="8">
+        <v>4030000350</v>
+      </c>
+      <c r="B101" s="3">
         <v>2040000000</v>
       </c>
       <c r="C101" s="4">
-        <v>4030010135</v>
+        <v>305020511</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E101" s="6">
-        <v>4030000012</v>
+        <v>305020500</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>4030000098</v>
-      </c>
-      <c r="B102" s="8">
+        <v>4030000384</v>
+      </c>
+      <c r="B102" s="3">
         <v>2040000000</v>
       </c>
       <c r="C102" s="4">
-        <v>4030010138</v>
+        <v>305020512</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E102" s="6">
-        <v>4030000001</v>
+        <v>305020500</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>4030000099</v>
-      </c>
-      <c r="B103" s="8">
+        <v>4030000111</v>
+      </c>
+      <c r="B103" s="3">
         <v>2040000000</v>
       </c>
       <c r="C103" s="4">
-        <v>4030010139</v>
+        <v>305020601</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E103" s="6">
-        <v>4030000001</v>
+        <v>305020600</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>4030000100</v>
-      </c>
-      <c r="B104" s="8">
+        <v>4030000112</v>
+      </c>
+      <c r="B104" s="3">
         <v>2040000000</v>
       </c>
       <c r="C104" s="4">
-        <v>4030010140</v>
+        <v>305020602</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E104" s="6">
-        <v>4030000001</v>
+        <v>305020600</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>4030000101</v>
-      </c>
-      <c r="B105" s="8">
+        <v>4030000113</v>
+      </c>
+      <c r="B105" s="3">
         <v>2040000000</v>
       </c>
       <c r="C105" s="4">
-        <v>4030010141</v>
+        <v>305020603</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E105" s="6">
-        <v>4030000001</v>
+        <v>305020600</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>4030000111</v>
-      </c>
-      <c r="B106" s="8">
+        <v>4030000115</v>
+      </c>
+      <c r="B106" s="3">
         <v>2040000000</v>
       </c>
       <c r="C106" s="4">
-        <v>4030010142</v>
+        <v>305020604</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E106" s="6">
-        <v>4030000003</v>
+        <v>305020600</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>4030000112</v>
-      </c>
-      <c r="B107" s="8">
+        <v>4030000148</v>
+      </c>
+      <c r="B107" s="3">
         <v>2040000000</v>
       </c>
       <c r="C107" s="4">
-        <v>4030010143</v>
+        <v>305020605</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E107" s="6">
-        <v>4030000003</v>
+        <v>305020600</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>4030000113</v>
-      </c>
-      <c r="B108" s="8">
+        <v>4030000157</v>
+      </c>
+      <c r="B108" s="3">
         <v>2040000000</v>
       </c>
       <c r="C108" s="4">
-        <v>4030010144</v>
+        <v>305020701</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E108" s="6">
-        <v>4030000003</v>
+        <v>305020700</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>4030000115</v>
-      </c>
-      <c r="B109" s="8">
+        <v>4030000162</v>
+      </c>
+      <c r="B109" s="3">
         <v>2040000000</v>
       </c>
       <c r="C109" s="4">
-        <v>4030010146</v>
+        <v>305020702</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E109" s="6">
-        <v>4030000003</v>
+        <v>305020700</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>4030000134</v>
-      </c>
-      <c r="B110" s="8">
+        <v>4030000286</v>
+      </c>
+      <c r="B110" s="3">
         <v>2040000000</v>
       </c>
       <c r="C110" s="4">
-        <v>4030010147</v>
+        <v>305020703</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E110" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>4030000147</v>
-      </c>
-      <c r="B111" s="8">
+        <v>4030000287</v>
+      </c>
+      <c r="B111" s="3">
         <v>2040000000</v>
       </c>
       <c r="C111" s="4">
-        <v>4030010148</v>
+        <v>305020704</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E111" s="6">
-        <v>4030000007</v>
+        <v>305020700</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>4030000148</v>
-      </c>
-      <c r="B112" s="8">
+        <v>4030000288</v>
+      </c>
+      <c r="B112" s="3">
         <v>2040000000</v>
       </c>
       <c r="C112" s="4">
-        <v>4030010149</v>
+        <v>305020705</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E112" s="6">
-        <v>4030000003</v>
+        <v>305020700</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>4030000149</v>
-      </c>
-      <c r="B113" s="8">
+        <v>4030000290</v>
+      </c>
+      <c r="B113" s="3">
         <v>2040000000</v>
       </c>
       <c r="C113" s="4">
-        <v>4030010150</v>
+        <v>305020706</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E113" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>4030000150</v>
-      </c>
-      <c r="B114" s="8">
+        <v>4030000293</v>
+      </c>
+      <c r="B114" s="3">
         <v>2040000000</v>
       </c>
       <c r="C114" s="4">
-        <v>4030010151</v>
+        <v>305020707</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E114" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>4030000151</v>
-      </c>
-      <c r="B115" s="8">
+        <v>4030000302</v>
+      </c>
+      <c r="B115" s="3">
         <v>2040000000</v>
       </c>
       <c r="C115" s="4">
-        <v>4030010152</v>
+        <v>305020708</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E115" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>4030000262</v>
-      </c>
-      <c r="B116" s="8">
+        <v>4030000316</v>
+      </c>
+      <c r="B116" s="3">
         <v>2040000000</v>
       </c>
       <c r="C116" s="4">
-        <v>4030010154</v>
+        <v>305020709</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E116" s="6">
-        <v>4030000001</v>
+        <v>305020700</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>4030000152</v>
-      </c>
-      <c r="B117" s="8">
+        <v>4030000318</v>
+      </c>
+      <c r="B117" s="3">
         <v>2040000000</v>
       </c>
       <c r="C117" s="4">
-        <v>4030010155</v>
+        <v>305020710</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E117" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>4030000253</v>
-      </c>
-      <c r="B118" s="8">
+        <v>4030000319</v>
+      </c>
+      <c r="B118" s="3">
         <v>2040000000</v>
       </c>
       <c r="C118" s="4">
-        <v>4030010157</v>
+        <v>305020711</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E118" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>4030000155</v>
-      </c>
-      <c r="B119" s="8">
+        <v>4030000322</v>
+      </c>
+      <c r="B119" s="3">
         <v>2040000000</v>
       </c>
       <c r="C119" s="4">
-        <v>4030010158</v>
+        <v>305020712</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E119" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>4030000156</v>
-      </c>
-      <c r="B120" s="8">
+        <v>4030000323</v>
+      </c>
+      <c r="B120" s="3">
         <v>2040000000</v>
       </c>
       <c r="C120" s="4">
-        <v>4030010159</v>
+        <v>305020713</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="E120" s="6">
-        <v>4030000006</v>
+        <v>305020700</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>4030000157</v>
-      </c>
-      <c r="B121" s="8">
+        <v>4030000324</v>
+      </c>
+      <c r="B121" s="3">
         <v>2040000000</v>
       </c>
       <c r="C121" s="4">
-        <v>4030010160</v>
+        <v>305020714</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E121" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>4030000164</v>
-      </c>
-      <c r="B122" s="8">
+        <v>4030000328</v>
+      </c>
+      <c r="B122" s="3">
         <v>2040000000</v>
       </c>
       <c r="C122" s="4">
-        <v>4030010161</v>
+        <v>305020715</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E122" s="6">
-        <v>4030000006</v>
+        <v>305020700</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>4030000167</v>
-      </c>
-      <c r="B123" s="8">
+        <v>4030000337</v>
+      </c>
+      <c r="B123" s="3">
         <v>2040000000</v>
       </c>
       <c r="C123" s="4">
-        <v>4030010164</v>
+        <v>305020716</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E123" s="6">
-        <v>4030000006</v>
+        <v>305020700</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>4030000263</v>
-      </c>
-      <c r="B124" s="8">
+        <v>4030000340</v>
+      </c>
+      <c r="B124" s="3">
         <v>2040000000</v>
       </c>
       <c r="C124" s="4">
-        <v>4030010165</v>
+        <v>305020717</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E124" s="6">
-        <v>4030000012</v>
+        <v>305020700</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>4030000269</v>
-      </c>
-      <c r="B125" s="8">
+        <v>4030000342</v>
+      </c>
+      <c r="B125" s="3">
         <v>2040000000</v>
       </c>
       <c r="C125" s="4">
-        <v>4030010168</v>
+        <v>305020718</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E125" s="6">
-        <v>4030000009</v>
+        <v>305020700</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>4030000271</v>
-      </c>
-      <c r="B126" s="8">
+        <v>4030000345</v>
+      </c>
+      <c r="B126" s="3">
         <v>2040000000</v>
       </c>
       <c r="C126" s="4">
-        <v>4030010169</v>
+        <v>305020719</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E126" s="6">
-        <v>4030000009</v>
+        <v>305020700</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>4030000278</v>
-      </c>
-      <c r="B127" s="8">
+        <v>4030000346</v>
+      </c>
+      <c r="B127" s="3">
         <v>2040000000</v>
       </c>
       <c r="C127" s="4">
-        <v>4030010172</v>
+        <v>305020720</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E127" s="6">
-        <v>4030000012</v>
+        <v>305020700</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>4030000286</v>
-      </c>
-      <c r="B128" s="8">
+        <v>4030000349</v>
+      </c>
+      <c r="B128" s="3">
         <v>2040000000</v>
       </c>
       <c r="C128" s="4">
-        <v>4030010176</v>
+        <v>305020721</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E128" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>4030000287</v>
-      </c>
-      <c r="B129" s="8">
+        <v>4030000355</v>
+      </c>
+      <c r="B129" s="3">
         <v>2040000000</v>
       </c>
       <c r="C129" s="4">
-        <v>4030010177</v>
+        <v>305020722</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E129" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>4030000288</v>
-      </c>
-      <c r="B130" s="8">
+        <v>4030000357</v>
+      </c>
+      <c r="B130" s="3">
         <v>2040000000</v>
       </c>
       <c r="C130" s="4">
-        <v>4030010178</v>
+        <v>305020723</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E130" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>4030000290</v>
-      </c>
-      <c r="B131" s="8">
+        <v>4030000358</v>
+      </c>
+      <c r="B131" s="3">
         <v>2040000000</v>
       </c>
       <c r="C131" s="4">
-        <v>4030010180</v>
+        <v>305020724</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E131" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>4030000291</v>
-      </c>
-      <c r="B132" s="8">
+        <v>4030000359</v>
+      </c>
+      <c r="B132" s="3">
         <v>2040000000</v>
       </c>
       <c r="C132" s="4">
-        <v>4030010181</v>
+        <v>305020725</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E132" s="6">
-        <v>4030000002</v>
+        <v>305020700</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>4030000292</v>
-      </c>
-      <c r="B133" s="8">
+        <v>4030000362</v>
+      </c>
+      <c r="B133" s="3">
         <v>2040000000</v>
       </c>
       <c r="C133" s="4">
-        <v>4030010182</v>
+        <v>305020726</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E133" s="6">
-        <v>4030000002</v>
+        <v>305020700</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>4030000293</v>
-      </c>
-      <c r="B134" s="8">
+        <v>4030000363</v>
+      </c>
+      <c r="B134" s="3">
         <v>2040000000</v>
       </c>
       <c r="C134" s="4">
-        <v>4030010183</v>
+        <v>305020727</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E134" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>4030000311</v>
-      </c>
-      <c r="B135" s="8">
+        <v>4030000365</v>
+      </c>
+      <c r="B135" s="3">
         <v>2040000000</v>
       </c>
       <c r="C135" s="4">
-        <v>4030010185</v>
+        <v>305020728</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E135" s="6">
-        <v>4030000011</v>
+        <v>305020700</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>4030000297</v>
-      </c>
-      <c r="B136" s="8">
+        <v>4030000366</v>
+      </c>
+      <c r="B136" s="3">
         <v>2040000000</v>
       </c>
       <c r="C136" s="4">
-        <v>4030010187</v>
+        <v>305020729</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E136" s="6">
-        <v>4030000012</v>
+        <v>305020700</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>4030000299</v>
-      </c>
-      <c r="B137" s="8">
+        <v>4030000367</v>
+      </c>
+      <c r="B137" s="3">
         <v>2040000000</v>
       </c>
       <c r="C137" s="4">
-        <v>4030010188</v>
+        <v>305020730</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E137" s="6">
-        <v>4030000005</v>
+        <v>305020700</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>4030000300</v>
-      </c>
-      <c r="B138" s="8">
+        <v>4030000368</v>
+      </c>
+      <c r="B138" s="3">
         <v>2040000000</v>
       </c>
       <c r="C138" s="4">
-        <v>4030010189</v>
+        <v>305020731</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E138" s="6">
-        <v>4030000002</v>
+        <v>305020700</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>4030000302</v>
-      </c>
-      <c r="B139" s="8">
+        <v>4030000372</v>
+      </c>
+      <c r="B139" s="3">
         <v>2040000000</v>
       </c>
       <c r="C139" s="4">
-        <v>4030010191</v>
+        <v>305020732</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="E139" s="6">
-        <v>4030000008</v>
+        <v>305020700</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>4030000305</v>
-      </c>
-      <c r="B140" s="8">
+        <v>4030000375</v>
+      </c>
+      <c r="B140" s="3">
         <v>2040000000</v>
       </c>
       <c r="C140" s="4">
-        <v>4030010194</v>
+        <v>305020733</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E140" s="6">
-        <v>4030000007</v>
+        <v>305020700</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>4030000307</v>
-      </c>
-      <c r="B141" s="8">
+        <v>4030000159</v>
+      </c>
+      <c r="B141" s="3">
         <v>2040000000</v>
       </c>
       <c r="C141" s="4">
-        <v>4030010196</v>
+        <v>305020801</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E141" s="6">
-        <v>4030000013</v>
+        <v>305020800</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>4030000309</v>
-      </c>
-      <c r="B142" s="8">
+        <v>4030000160</v>
+      </c>
+      <c r="B142" s="3">
         <v>2040000000</v>
       </c>
       <c r="C142" s="4">
-        <v>4030010197</v>
+        <v>305020802</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="E142" s="6">
-        <v>4030000011</v>
+        <v>305020800</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>4030000314</v>
-      </c>
-      <c r="B143" s="8">
+        <v>4030000161</v>
+      </c>
+      <c r="B143" s="3">
         <v>2040000000</v>
       </c>
       <c r="C143" s="4">
-        <v>4030010198</v>
+        <v>305020803</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E143" s="6">
-        <v>4030000012</v>
+        <v>305020800</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>4030000369</v>
-      </c>
-      <c r="B144" s="8">
+        <v>4030000168</v>
+      </c>
+      <c r="B144" s="3">
         <v>2040000000</v>
       </c>
       <c r="C144" s="4">
-        <v>4030010199</v>
+        <v>305020804</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E144" s="6">
-        <v>4030000006</v>
+        <v>305020800</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>4030000316</v>
-      </c>
-      <c r="B145" s="8">
+        <v>4030000170</v>
+      </c>
+      <c r="B145" s="3">
         <v>2040000000</v>
       </c>
       <c r="C145" s="4">
-        <v>4030010200</v>
+        <v>305020805</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E145" s="6">
-        <v>4030000008</v>
+        <v>305020800</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>4030000317</v>
-      </c>
-      <c r="B146" s="8">
+        <v>4030000171</v>
+      </c>
+      <c r="B146" s="3">
         <v>2040000000</v>
       </c>
       <c r="C146" s="4">
-        <v>4030010201</v>
+        <v>305020806</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E146" s="6">
-        <v>4030000005</v>
+        <v>305020800</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>4030000318</v>
-      </c>
-      <c r="B147" s="8">
+        <v>4030000172</v>
+      </c>
+      <c r="B147" s="3">
         <v>2040000000</v>
       </c>
       <c r="C147" s="4">
-        <v>4030010202</v>
+        <v>305020807</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E147" s="6">
-        <v>4030000008</v>
+        <v>305020800</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>4030000319</v>
-      </c>
-      <c r="B148" s="8">
+        <v>4030000269</v>
+      </c>
+      <c r="B148" s="3">
         <v>2040000000</v>
       </c>
       <c r="C148" s="4">
-        <v>4030010203</v>
+        <v>305020808</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E148" s="6">
-        <v>4030000008</v>
+        <v>305020800</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>4030000321</v>
-      </c>
-      <c r="B149" s="8">
+        <v>4030000271</v>
+      </c>
+      <c r="B149" s="3">
         <v>2040000000</v>
       </c>
       <c r="C149" s="4">
-        <v>4030010205</v>
+        <v>305020809</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E149" s="6">
-        <v>4030000007</v>
+        <v>305020800</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>4030000324</v>
-      </c>
-      <c r="B150" s="8">
+        <v>4030000174</v>
+      </c>
+      <c r="B150" s="3">
         <v>2040000000</v>
       </c>
       <c r="C150" s="4">
-        <v>4030010206</v>
+        <v>305020901</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E150" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>4030000326</v>
-      </c>
-      <c r="B151" s="8">
+        <v>4030000175</v>
+      </c>
+      <c r="B151" s="3">
         <v>2040000000</v>
       </c>
       <c r="C151" s="4">
-        <v>4030010208</v>
+        <v>305020902</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E151" s="6">
-        <v>4030000002</v>
+        <v>305020900</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>4030000327</v>
-      </c>
-      <c r="B152" s="8">
+        <v>4030000176</v>
+      </c>
+      <c r="B152" s="3">
         <v>2040000000</v>
       </c>
       <c r="C152" s="4">
-        <v>4030010209</v>
+        <v>305020903</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E152" s="6">
-        <v>4030000002</v>
+        <v>305020900</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>4030000328</v>
-      </c>
-      <c r="B153" s="8">
+        <v>4030000177</v>
+      </c>
+      <c r="B153" s="3">
         <v>2040000000</v>
       </c>
       <c r="C153" s="4">
-        <v>4030010210</v>
+        <v>305020904</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E153" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>4030000331</v>
-      </c>
-      <c r="B154" s="8">
+        <v>4030000178</v>
+      </c>
+      <c r="B154" s="3">
         <v>2040000000</v>
       </c>
       <c r="C154" s="4">
-        <v>4030010212</v>
+        <v>305020905</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E154" s="6">
-        <v>4030000005</v>
+        <v>305020900</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>4030000334</v>
-      </c>
-      <c r="B155" s="8">
+        <v>4030000180</v>
+      </c>
+      <c r="B155" s="3">
         <v>2040000000</v>
       </c>
       <c r="C155" s="4">
-        <v>4030010215</v>
+        <v>305020906</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E155" s="6">
-        <v>4030000007</v>
+        <v>305020900</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>4030000337</v>
-      </c>
-      <c r="B156" s="8">
+        <v>4030000181</v>
+      </c>
+      <c r="B156" s="3">
         <v>2040000000</v>
       </c>
       <c r="C156" s="4">
-        <v>4030010216</v>
+        <v>305020907</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E156" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>4030000341</v>
-      </c>
-      <c r="B157" s="8">
+        <v>4030000182</v>
+      </c>
+      <c r="B157" s="3">
         <v>2040000000</v>
       </c>
       <c r="C157" s="4">
-        <v>4030010218</v>
+        <v>305020908</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E157" s="6">
-        <v>4030000005</v>
+        <v>305020900</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>4030000342</v>
-      </c>
-      <c r="B158" s="8">
+        <v>4030000183</v>
+      </c>
+      <c r="B158" s="3">
         <v>2040000000</v>
       </c>
       <c r="C158" s="4">
-        <v>4030010219</v>
+        <v>305020909</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E158" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>4030000377</v>
-      </c>
-      <c r="B159" s="8">
+        <v>4030000187</v>
+      </c>
+      <c r="B159" s="3">
         <v>2040000000</v>
       </c>
       <c r="C159" s="4">
-        <v>4030010220</v>
+        <v>305020910</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E159" s="6">
-        <v>4030000006</v>
+        <v>305020900</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>4030000345</v>
-      </c>
-      <c r="B160" s="8">
+        <v>4030000188</v>
+      </c>
+      <c r="B160" s="3">
         <v>2040000000</v>
       </c>
       <c r="C160" s="4">
-        <v>4030010222</v>
+        <v>305020911</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E160" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>4030000346</v>
-      </c>
-      <c r="B161" s="8">
+        <v>4030000192</v>
+      </c>
+      <c r="B161" s="3">
         <v>2040000000</v>
       </c>
       <c r="C161" s="4">
-        <v>4030010223</v>
+        <v>305020912</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E161" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>4030000349</v>
-      </c>
-      <c r="B162" s="8">
+        <v>4030000264</v>
+      </c>
+      <c r="B162" s="3">
         <v>2040000000</v>
       </c>
       <c r="C162" s="4">
-        <v>4030010225</v>
+        <v>305020913</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E162" s="6">
-        <v>4030000008</v>
+        <v>305020900</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>4030000350</v>
-      </c>
-      <c r="B163" s="8">
+        <v>4030000309</v>
+      </c>
+      <c r="B163" s="3">
         <v>2040000000</v>
       </c>
       <c r="C163" s="4">
-        <v>4030010226</v>
+        <v>305020914</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E163" s="6">
-        <v>4030000007</v>
+        <v>305020900</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>4030000370</v>
-      </c>
-      <c r="B164" s="8">
+        <v>4030000311</v>
+      </c>
+      <c r="B164" s="3">
         <v>2040000000</v>
       </c>
       <c r="C164" s="4">
-        <v>4030010227</v>
+        <v>305020915</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="E164" s="6">
-        <v>4030000006</v>
+        <v>305020900</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>4030000353</v>
-      </c>
-      <c r="B165" s="8">
+        <v>4030000371</v>
+      </c>
+      <c r="B165" s="3">
         <v>2040000000</v>
       </c>
       <c r="C165" s="4">
-        <v>4030010228</v>
+        <v>305020916</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E165" s="6">
-        <v>4030000005</v>
+        <v>305020900</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>4030000355</v>
-      </c>
-      <c r="B166" s="8">
+        <v>4030000185</v>
+      </c>
+      <c r="B166" s="3">
         <v>2040000000</v>
       </c>
       <c r="C166" s="4">
-        <v>4030010230</v>
+        <v>305021001</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E166" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>4030000356</v>
-      </c>
-      <c r="B167" s="8">
+        <v>4030000186</v>
+      </c>
+      <c r="B167" s="3">
         <v>2040000000</v>
       </c>
       <c r="C167" s="4">
-        <v>4030010231</v>
+        <v>305021002</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E167" s="6">
-        <v>4030000005</v>
+        <v>305021000</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>4030000357</v>
-      </c>
-      <c r="B168" s="8">
+        <v>4030000189</v>
+      </c>
+      <c r="B168" s="3">
         <v>2040000000</v>
       </c>
       <c r="C168" s="4">
-        <v>4030010232</v>
+        <v>305021003</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E168" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>4030000374</v>
-      </c>
-      <c r="B169" s="8">
+        <v>4030000191</v>
+      </c>
+      <c r="B169" s="3">
         <v>2040000000</v>
       </c>
       <c r="C169" s="4">
-        <v>4030010233</v>
+        <v>305021004</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E169" s="6">
-        <v>4030000014</v>
+        <v>305021000</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>4030000358</v>
-      </c>
-      <c r="B170" s="8">
+        <v>4030000193</v>
+      </c>
+      <c r="B170" s="3">
         <v>2040000000</v>
       </c>
       <c r="C170" s="4">
-        <v>4030010234</v>
+        <v>305021005</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E170" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>4030000359</v>
-      </c>
-      <c r="B171" s="8">
+        <v>4030000194</v>
+      </c>
+      <c r="B171" s="3">
         <v>2040000000</v>
       </c>
       <c r="C171" s="4">
-        <v>4030010235</v>
+        <v>305021006</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E171" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>4030000363</v>
-      </c>
-      <c r="B172" s="8">
+        <v>4030000195</v>
+      </c>
+      <c r="B172" s="3">
         <v>2040000000</v>
       </c>
       <c r="C172" s="4">
-        <v>4030010237</v>
+        <v>305021007</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E172" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>4030000365</v>
-      </c>
-      <c r="B173" s="8">
+        <v>4030000196</v>
+      </c>
+      <c r="B173" s="3">
         <v>2040000000</v>
       </c>
       <c r="C173" s="4">
-        <v>4030010239</v>
+        <v>305021008</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E173" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>4030000367</v>
-      </c>
-      <c r="B174" s="8">
+        <v>4030000197</v>
+      </c>
+      <c r="B174" s="3">
         <v>2040000000</v>
       </c>
       <c r="C174" s="4">
-        <v>4030010240</v>
+        <v>305021009</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E174" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>4030000368</v>
-      </c>
-      <c r="B175" s="8">
+        <v>4030000198</v>
+      </c>
+      <c r="B175" s="3">
         <v>2040000000</v>
       </c>
       <c r="C175" s="4">
-        <v>4030010241</v>
+        <v>305021010</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E175" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>4030000375</v>
-      </c>
-      <c r="B176" s="8">
+        <v>4030000199</v>
+      </c>
+      <c r="B176" s="3">
         <v>2040000000</v>
       </c>
       <c r="C176" s="4">
-        <v>4030010242</v>
+        <v>305021011</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="E176" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>4030000385</v>
-      </c>
-      <c r="B177" s="8">
+        <v>4030000201</v>
+      </c>
+      <c r="B177" s="3">
         <v>2040000000</v>
       </c>
       <c r="C177" s="4">
-        <v>4030010258</v>
+        <v>305021012</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="E177" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>4030000381</v>
-      </c>
-      <c r="B178" s="8">
+        <v>4030000205</v>
+      </c>
+      <c r="B178" s="3">
         <v>2040000000</v>
       </c>
       <c r="C178" s="4">
-        <v>4030010271</v>
+        <v>305021013</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="E178" s="6">
-        <v>4030000005</v>
+        <v>305021000</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>4030000382</v>
-      </c>
-      <c r="B179" s="8">
+        <v>4030000207</v>
+      </c>
+      <c r="B179" s="3">
         <v>2040000000</v>
       </c>
       <c r="C179" s="4">
-        <v>4030010284</v>
+        <v>305021014</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E179" s="6">
-        <v>4030000006</v>
+        <v>305021000</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>4030000384</v>
-      </c>
-      <c r="B180" s="8">
+        <v>4030000208</v>
+      </c>
+      <c r="B180" s="3">
         <v>2040000000</v>
       </c>
       <c r="C180" s="4">
-        <v>4030010286</v>
+        <v>305021015</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E180" s="6">
-        <v>4030000007</v>
+        <v>305021000</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>4030000380</v>
-      </c>
-      <c r="B181" s="8">
+        <v>4030000209</v>
+      </c>
+      <c r="B181" s="3">
         <v>2040000000</v>
       </c>
       <c r="C181" s="4">
-        <v>4030010292</v>
+        <v>305021016</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E181" s="6">
-        <v>4030000005</v>
+        <v>305021000</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>4030000376</v>
-      </c>
-      <c r="B182" s="8">
+        <v>4030000210</v>
+      </c>
+      <c r="B182" s="3">
         <v>2040000000</v>
       </c>
       <c r="C182" s="4">
-        <v>4030010294</v>
+        <v>305021017</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E182" s="6">
-        <v>4030000005</v>
+        <v>305021000</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>4030000378</v>
-      </c>
-      <c r="B183" s="8">
+        <v>4030000211</v>
+      </c>
+      <c r="B183" s="3">
         <v>2040000000</v>
       </c>
       <c r="C183" s="4">
-        <v>4030010295</v>
+        <v>305021018</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E183" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>4030000379</v>
-      </c>
-      <c r="B184" s="8">
+        <v>4030000212</v>
+      </c>
+      <c r="B184" s="3">
         <v>2040000000</v>
       </c>
       <c r="C184" s="4">
-        <v>4030010296</v>
+        <v>305021019</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E184" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>4030000372</v>
-      </c>
-      <c r="B185" s="8">
+        <v>4030000213</v>
+      </c>
+      <c r="B185" s="3">
         <v>2040000000</v>
       </c>
       <c r="C185" s="4">
-        <v>4030020008</v>
+        <v>305021020</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E185" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>4030000187</v>
-      </c>
-      <c r="B186" s="8">
+        <v>4030000216</v>
+      </c>
+      <c r="B186" s="3">
         <v>2040000000</v>
       </c>
       <c r="C186" s="4">
-        <v>4030020013</v>
+        <v>305021021</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E186" s="6">
-        <v>4030000011</v>
+        <v>305021000</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>4030000193</v>
-      </c>
-      <c r="B187" s="8">
+        <v>4030000218</v>
+      </c>
+      <c r="B187" s="3">
         <v>2040000000</v>
       </c>
       <c r="C187" s="4">
-        <v>4030020014</v>
+        <v>305021022</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E187" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>4030000323</v>
-      </c>
-      <c r="B188" s="8">
+        <v>4030000228</v>
+      </c>
+      <c r="B188" s="3">
         <v>2040000000</v>
       </c>
       <c r="C188" s="4">
-        <v>4030020015</v>
+        <v>305021023</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="E188" s="6">
-        <v>4030000008</v>
+        <v>305021000</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>4030000188</v>
-      </c>
-      <c r="B189" s="8">
+        <v>4030000229</v>
+      </c>
+      <c r="B189" s="3">
         <v>2040000000</v>
       </c>
       <c r="C189" s="4">
-        <v>4030020016</v>
+        <v>305021024</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="E189" s="6">
-        <v>4030000011</v>
+        <v>305021000</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>4030000216</v>
-      </c>
-      <c r="B190" s="8">
+        <v>4030000230</v>
+      </c>
+      <c r="B190" s="3">
         <v>2040000000</v>
       </c>
       <c r="C190" s="4">
-        <v>4030020039</v>
+        <v>305021025</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="E190" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>4030000219</v>
-      </c>
-      <c r="B191" s="8">
+        <v>4030000231</v>
+      </c>
+      <c r="B191" s="3">
         <v>2040000000</v>
       </c>
       <c r="C191" s="4">
-        <v>4030020043</v>
+        <v>305021026</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="E191" s="6">
-        <v>4030000005</v>
+        <v>305021000</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>4030000336</v>
-      </c>
-      <c r="B192" s="8">
+        <v>4030000232</v>
+      </c>
+      <c r="B192" s="3">
         <v>2040000000</v>
       </c>
       <c r="C192" s="4">
-        <v>4030020054</v>
+        <v>305021027</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="E192" s="6">
-        <v>4030000002</v>
+        <v>305021000</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>4030000257</v>
-      </c>
-      <c r="B193" s="8">
+        <v>4030000233</v>
+      </c>
+      <c r="B193" s="3">
         <v>2040000000</v>
       </c>
       <c r="C193" s="4">
-        <v>4030020056</v>
+        <v>305021028</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="E193" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>4030000196</v>
-      </c>
-      <c r="B194" s="8">
+        <v>4030000234</v>
+      </c>
+      <c r="B194" s="3">
         <v>2040000000</v>
       </c>
       <c r="C194" s="4">
-        <v>4030020086</v>
+        <v>305021029</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E194" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>4030000201</v>
-      </c>
-      <c r="B195" s="8">
+        <v>4030000236</v>
+      </c>
+      <c r="B195" s="3">
         <v>2040000000</v>
       </c>
       <c r="C195" s="4">
-        <v>4030020087</v>
+        <v>305021030</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E195" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>4030000194</v>
-      </c>
-      <c r="B196" s="8">
+        <v>4030000239</v>
+      </c>
+      <c r="B196" s="3">
         <v>2040000000</v>
       </c>
       <c r="C196" s="4">
-        <v>4030020088</v>
+        <v>305021031</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="E196" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>4030000210</v>
-      </c>
-      <c r="B197" s="8">
+        <v>4030000240</v>
+      </c>
+      <c r="B197" s="3">
         <v>2040000000</v>
       </c>
       <c r="C197" s="4">
-        <v>4030020090</v>
+        <v>305021032</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E197" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>4030000199</v>
-      </c>
-      <c r="B198" s="8">
+        <v>4030000241</v>
+      </c>
+      <c r="B198" s="3">
         <v>2040000000</v>
       </c>
       <c r="C198" s="4">
-        <v>4030020091</v>
+        <v>305021033</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="E198" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>4030000198</v>
-      </c>
-      <c r="B199" s="8">
+        <v>4030000242</v>
+      </c>
+      <c r="B199" s="3">
         <v>2040000000</v>
       </c>
       <c r="C199" s="4">
-        <v>4030020094</v>
+        <v>305021034</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E199" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>4030000191</v>
-      </c>
-      <c r="B200" s="8">
+        <v>4030000243</v>
+      </c>
+      <c r="B200" s="3">
         <v>2040000000</v>
       </c>
       <c r="C200" s="4">
-        <v>4030020095</v>
+        <v>305021035</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="E200" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>4030000197</v>
-      </c>
-      <c r="B201" s="8">
+        <v>4030000244</v>
+      </c>
+      <c r="B201" s="3">
         <v>2040000000</v>
       </c>
       <c r="C201" s="4">
-        <v>4030020096</v>
+        <v>305021036</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E201" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>4030000195</v>
-      </c>
-      <c r="B202" s="8">
+        <v>4030000245</v>
+      </c>
+      <c r="B202" s="3">
         <v>2040000000</v>
       </c>
       <c r="C202" s="4">
-        <v>4030020097</v>
+        <v>305021037</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="E202" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>4030000213</v>
-      </c>
-      <c r="B203" s="8">
+        <v>4030000246</v>
+      </c>
+      <c r="B203" s="3">
         <v>2040000000</v>
       </c>
       <c r="C203" s="4">
-        <v>4030020099</v>
+        <v>305021038</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="E203" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>4030000205</v>
-      </c>
-      <c r="B204" s="8">
+        <v>4030000257</v>
+      </c>
+      <c r="B204" s="3">
         <v>2040000000</v>
       </c>
       <c r="C204" s="4">
-        <v>4030020104</v>
+        <v>305021039</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E204" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>4030000234</v>
-      </c>
-      <c r="B205" s="8">
+        <v>4030000263</v>
+      </c>
+      <c r="B205" s="3">
         <v>2040000000</v>
       </c>
       <c r="C205" s="4">
-        <v>4030020107</v>
+        <v>305021040</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E205" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>4030000236</v>
-      </c>
-      <c r="B206" s="8">
+        <v>4030000276</v>
+      </c>
+      <c r="B206" s="3">
         <v>2040000000</v>
       </c>
       <c r="C206" s="4">
-        <v>4030020111</v>
+        <v>305021041</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="E206" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>4030000160</v>
-      </c>
-      <c r="B207" s="8">
+        <v>4030000278</v>
+      </c>
+      <c r="B207" s="3">
         <v>2040000000</v>
       </c>
       <c r="C207" s="4">
-        <v>4030020118</v>
+        <v>305021042</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E207" s="6">
-        <v>4030000009</v>
+        <v>305021000</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>4030000239</v>
-      </c>
-      <c r="B208" s="8">
+        <v>4030000297</v>
+      </c>
+      <c r="B208" s="3">
         <v>2040000000</v>
       </c>
       <c r="C208" s="4">
-        <v>4030020122</v>
+        <v>305021043</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E208" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>4030000240</v>
-      </c>
-      <c r="B209" s="8">
+        <v>4030000310</v>
+      </c>
+      <c r="B209" s="3">
         <v>2040000000</v>
       </c>
       <c r="C209" s="4">
-        <v>4030020128</v>
+        <v>305021044</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="E209" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>4030000371</v>
-      </c>
-      <c r="B210" s="8">
+        <v>4030000312</v>
+      </c>
+      <c r="B210" s="3">
         <v>2040000000</v>
       </c>
       <c r="C210" s="4">
-        <v>4030020132</v>
+        <v>305021045</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="E210" s="6">
-        <v>4030000011</v>
+        <v>305021000</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>4030000264</v>
-      </c>
-      <c r="B211" s="8">
+        <v>4030000314</v>
+      </c>
+      <c r="B211" s="3">
         <v>2040000000</v>
       </c>
       <c r="C211" s="4">
-        <v>4030020165</v>
+        <v>305021046</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E211" s="6">
-        <v>4030000011</v>
+        <v>305021000</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>4030000279</v>
-      </c>
-      <c r="B212" s="8">
+        <v>4030000378</v>
+      </c>
+      <c r="B212" s="3">
         <v>2040000000</v>
       </c>
       <c r="C212" s="4">
-        <v>4030020172</v>
+        <v>305021047</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="E212" s="6">
-        <v>4030000006</v>
+        <v>305021000</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>4030000312</v>
-      </c>
-      <c r="B213" s="8">
+        <v>4030000379</v>
+      </c>
+      <c r="B213" s="3">
         <v>2040000000</v>
       </c>
       <c r="C213" s="4">
-        <v>4030020185</v>
+        <v>305021048</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E213" s="6">
-        <v>4030000012</v>
+        <v>305021000</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>4030000298</v>
-      </c>
-      <c r="B214" s="8">
+        <v>4030000385</v>
+      </c>
+      <c r="B214" s="3">
         <v>2040000000</v>
       </c>
       <c r="C214" s="4">
-        <v>4030020187</v>
+        <v>305021049</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E214" s="6">
-        <v>4030000001</v>
+        <v>305021000</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>4030000310</v>
-      </c>
-      <c r="B215" s="8">
+        <v>4030000307</v>
+      </c>
+      <c r="B215" s="3">
         <v>2040000000</v>
       </c>
       <c r="C215" s="4">
-        <v>4030020197</v>
+        <v>305021101</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="E215" s="6">
-        <v>4030000012</v>
+        <v>305021100</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>4030000313</v>
-      </c>
-      <c r="B216" s="8">
+        <v>4030000374</v>
+      </c>
+      <c r="B216" s="3">
         <v>2040000000</v>
       </c>
       <c r="C216" s="4">
-        <v>4030030185</v>
+        <v>305021201</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="E216" s="6">
-        <v>4030000005</v>
+        <v>305021200</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="6"/>
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/group.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -665,13 +665,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1026,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1059,16 +1056,16 @@
       <c r="B2" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C2" s="4">
-        <v>305020101</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2">
+        <v>403110101</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>305020100</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1079,16 +1076,16 @@
       <c r="B3" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C3" s="4">
-        <v>305020102</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3">
+        <v>403110102</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>305020100</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1099,16 +1096,16 @@
       <c r="B4" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C4" s="4">
-        <v>305020103</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4">
+        <v>403110103</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>305020100</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1119,16 +1116,16 @@
       <c r="B5" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C5" s="4">
-        <v>305020104</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5">
+        <v>403110104</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>305020100</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1139,16 +1136,16 @@
       <c r="B6" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C6" s="4">
-        <v>305020105</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6">
+        <v>403110105</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>305020100</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1159,16 +1156,16 @@
       <c r="B7" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C7" s="4">
-        <v>305020106</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7">
+        <v>403110106</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>305020100</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1179,16 +1176,16 @@
       <c r="B8" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C8" s="4">
-        <v>305020107</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8">
+        <v>403110107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>305020100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1199,16 +1196,16 @@
       <c r="B9" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C9" s="4">
-        <v>305020108</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9">
+        <v>403110108</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>305020100</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1219,16 +1216,16 @@
       <c r="B10" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C10" s="4">
-        <v>305020109</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10">
+        <v>403110109</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>305020100</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1239,16 +1236,16 @@
       <c r="B11" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C11" s="4">
-        <v>305020110</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11">
+        <v>403110110</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>305020100</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1259,16 +1256,16 @@
       <c r="B12" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C12" s="4">
-        <v>305020111</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12">
+        <v>403110111</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>305020100</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1279,16 +1276,16 @@
       <c r="B13" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C13" s="4">
-        <v>305020112</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13">
+        <v>403110112</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>305020100</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1299,16 +1296,16 @@
       <c r="B14" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C14" s="4">
-        <v>305020113</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14">
+        <v>403110113</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>305020100</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1319,16 +1316,16 @@
       <c r="B15" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C15" s="4">
-        <v>305020114</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15">
+        <v>403110114</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>305020100</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1339,16 +1336,16 @@
       <c r="B16" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C16" s="4">
-        <v>305020115</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16">
+        <v>403110115</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>305020100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1359,16 +1356,16 @@
       <c r="B17" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C17" s="4">
-        <v>305020116</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17">
+        <v>403110116</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>305020100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1379,16 +1376,16 @@
       <c r="B18" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C18" s="4">
-        <v>305020117</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18">
+        <v>403110117</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>305020100</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1399,16 +1396,16 @@
       <c r="B19" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C19" s="4">
-        <v>305020118</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19">
+        <v>403110118</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>305020100</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1419,16 +1416,16 @@
       <c r="B20" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C20" s="4">
-        <v>305020119</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20">
+        <v>403110119</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>305020100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1439,16 +1436,16 @@
       <c r="B21" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C21" s="4">
-        <v>305020120</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21">
+        <v>403110120</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>305020100</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1459,16 +1456,16 @@
       <c r="B22" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C22" s="4">
-        <v>305020121</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22">
+        <v>403110121</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>305020100</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1479,16 +1476,16 @@
       <c r="B23" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C23" s="4">
-        <v>305020122</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23">
+        <v>403110122</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>305020100</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1499,16 +1496,16 @@
       <c r="B24" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C24" s="4">
-        <v>305020123</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24">
+        <v>403110123</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>305020100</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1519,16 +1516,16 @@
       <c r="B25" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C25" s="4">
-        <v>305020124</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25">
+        <v>403110124</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>305020100</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1539,16 +1536,16 @@
       <c r="B26" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C26" s="4">
-        <v>305020125</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26">
+        <v>403110125</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>305020100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1559,16 +1556,16 @@
       <c r="B27" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C27" s="4">
-        <v>305020126</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27">
+        <v>403110126</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>305020100</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1579,16 +1576,16 @@
       <c r="B28" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C28" s="4">
-        <v>305020127</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28">
+        <v>403110127</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>305020100</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1599,16 +1596,16 @@
       <c r="B29" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C29" s="4">
-        <v>305020128</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29">
+        <v>403110128</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>305020100</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1619,16 +1616,16 @@
       <c r="B30" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C30" s="4">
-        <v>305020129</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30">
+        <v>403110129</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>305020100</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1639,16 +1636,16 @@
       <c r="B31" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C31" s="4">
-        <v>305020130</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31">
+        <v>403110130</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>305020100</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1659,16 +1656,16 @@
       <c r="B32" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C32" s="4">
-        <v>305020131</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32">
+        <v>403110131</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>305020100</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1679,16 +1676,16 @@
       <c r="B33" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C33" s="4">
-        <v>305020201</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33">
+        <v>403110201</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>305020200</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1699,16 +1696,16 @@
       <c r="B34" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C34" s="4">
-        <v>305020202</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34">
+        <v>403110202</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>305020200</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1719,16 +1716,16 @@
       <c r="B35" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C35" s="4">
-        <v>305020203</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35">
+        <v>403110203</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>305020200</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1739,16 +1736,16 @@
       <c r="B36" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C36" s="4">
-        <v>305020204</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36">
+        <v>403110204</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>305020200</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1759,16 +1756,16 @@
       <c r="B37" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C37" s="4">
-        <v>305020205</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37">
+        <v>403110205</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>305020200</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1779,16 +1776,16 @@
       <c r="B38" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C38" s="4">
-        <v>305020206</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38">
+        <v>403110206</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>305020200</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1799,16 +1796,16 @@
       <c r="B39" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C39" s="4">
-        <v>305020207</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39">
+        <v>403110207</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>305020200</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1819,16 +1816,16 @@
       <c r="B40" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C40" s="4">
-        <v>305020208</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40">
+        <v>403110208</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>305020200</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1839,16 +1836,16 @@
       <c r="B41" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C41" s="4">
-        <v>305020209</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41">
+        <v>403110209</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>305020200</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1859,16 +1856,16 @@
       <c r="B42" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C42" s="4">
-        <v>305020210</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42">
+        <v>403110210</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>305020200</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1879,16 +1876,16 @@
       <c r="B43" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C43" s="4">
-        <v>305020211</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43">
+        <v>403110211</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>305020200</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1899,16 +1896,16 @@
       <c r="B44" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C44" s="4">
-        <v>305020212</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44">
+        <v>403110212</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>305020200</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1919,16 +1916,16 @@
       <c r="B45" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C45" s="4">
-        <v>305020213</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45">
+        <v>403110213</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>305020200</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1939,16 +1936,16 @@
       <c r="B46" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C46" s="4">
-        <v>305020214</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46">
+        <v>403110214</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>305020200</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1959,16 +1956,16 @@
       <c r="B47" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C47" s="4">
-        <v>305020215</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47">
+        <v>403110215</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>305020200</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1979,16 +1976,16 @@
       <c r="B48" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C48" s="4">
-        <v>305020216</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48">
+        <v>403110216</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>305020200</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1999,16 +1996,16 @@
       <c r="B49" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C49" s="4">
-        <v>305020217</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49">
+        <v>403110217</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>305020200</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2019,16 +2016,16 @@
       <c r="B50" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C50" s="4">
-        <v>305020218</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50">
+        <v>403110218</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>305020200</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2039,16 +2036,16 @@
       <c r="B51" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C51" s="4">
-        <v>305020219</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51">
+        <v>403110219</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>305020200</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2059,16 +2056,16 @@
       <c r="B52" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C52" s="4">
-        <v>305020220</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52">
+        <v>403110220</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>305020200</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2079,16 +2076,16 @@
       <c r="B53" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C53" s="4">
-        <v>305020221</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53">
+        <v>403110221</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>305020200</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2099,16 +2096,16 @@
       <c r="B54" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C54" s="4">
-        <v>305020222</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54">
+        <v>403110222</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>305020200</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2119,16 +2116,16 @@
       <c r="B55" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C55" s="4">
-        <v>305020223</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55">
+        <v>403110223</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>305020200</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2139,16 +2136,16 @@
       <c r="B56" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C56" s="4">
-        <v>305020224</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56">
+        <v>403110224</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>305020200</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2159,16 +2156,16 @@
       <c r="B57" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C57" s="4">
-        <v>305020225</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57">
+        <v>403110225</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>305020200</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2179,16 +2176,16 @@
       <c r="B58" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C58" s="4">
-        <v>305020301</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58">
+        <v>403110301</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>305020300</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2199,16 +2196,16 @@
       <c r="B59" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C59" s="4">
-        <v>305020302</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59">
+        <v>403110302</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>305020300</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2219,16 +2216,16 @@
       <c r="B60" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C60" s="4">
-        <v>305020303</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60">
+        <v>403110303</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>305020300</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2239,16 +2236,16 @@
       <c r="B61" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C61" s="4">
-        <v>305020304</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61">
+        <v>403110304</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>305020300</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2259,16 +2256,16 @@
       <c r="B62" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C62" s="4">
-        <v>305020305</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62">
+        <v>403110305</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>305020300</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2279,16 +2276,16 @@
       <c r="B63" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C63" s="4">
-        <v>305020306</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63">
+        <v>403110306</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>305020300</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2299,16 +2296,16 @@
       <c r="B64" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C64" s="4">
-        <v>305020307</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64">
+        <v>403110307</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>305020300</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2319,16 +2316,16 @@
       <c r="B65" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C65" s="4">
-        <v>305020308</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65">
+        <v>403110308</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>305020300</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2339,16 +2336,16 @@
       <c r="B66" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C66" s="4">
-        <v>305020309</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66">
+        <v>403110309</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>305020300</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2359,16 +2356,16 @@
       <c r="B67" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C67" s="4">
-        <v>305020310</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67">
+        <v>403110310</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>305020300</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2379,16 +2376,16 @@
       <c r="B68" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C68" s="4">
-        <v>305020311</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68">
+        <v>403110311</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>305020300</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2399,16 +2396,16 @@
       <c r="B69" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C69" s="4">
-        <v>305020312</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69">
+        <v>403110312</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>305020300</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2419,16 +2416,16 @@
       <c r="B70" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C70" s="4">
-        <v>305020313</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70">
+        <v>403110313</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>305020300</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2439,16 +2436,16 @@
       <c r="B71" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C71" s="4">
-        <v>305020314</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71">
+        <v>403110314</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>305020300</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2459,16 +2456,16 @@
       <c r="B72" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C72" s="4">
-        <v>305020315</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72">
+        <v>403110315</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>305020300</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2479,16 +2476,16 @@
       <c r="B73" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C73" s="4">
-        <v>305020316</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C73">
+        <v>403110316</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>305020300</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2499,16 +2496,16 @@
       <c r="B74" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C74" s="4">
-        <v>305020317</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74">
+        <v>403110317</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>305020300</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2519,16 +2516,16 @@
       <c r="B75" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C75" s="4">
-        <v>305020318</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75">
+        <v>403110318</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>305020300</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2539,16 +2536,16 @@
       <c r="B76" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C76" s="4">
-        <v>305020401</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76">
+        <v>403110401</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>305020400</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2559,16 +2556,16 @@
       <c r="B77" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C77" s="4">
-        <v>305020402</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77">
+        <v>403110402</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>305020400</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2579,16 +2576,16 @@
       <c r="B78" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C78" s="4">
-        <v>305020403</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78">
+        <v>403110403</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>305020400</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2599,16 +2596,16 @@
       <c r="B79" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C79" s="4">
-        <v>305020404</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79">
+        <v>403110404</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>305020400</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2619,16 +2616,16 @@
       <c r="B80" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C80" s="4">
-        <v>305020405</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80">
+        <v>403110405</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>305020400</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2639,16 +2636,16 @@
       <c r="B81" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C81" s="4">
-        <v>305020406</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81">
+        <v>403110406</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>305020400</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2659,16 +2656,16 @@
       <c r="B82" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C82" s="4">
-        <v>305020407</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="C82">
+        <v>403110407</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>305020400</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2679,16 +2676,16 @@
       <c r="B83" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C83" s="4">
-        <v>305020408</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83">
+        <v>403110408</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>305020400</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2699,16 +2696,16 @@
       <c r="B84" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C84" s="4">
-        <v>305020409</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84">
+        <v>403110409</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>305020400</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2719,16 +2716,16 @@
       <c r="B85" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C85" s="4">
-        <v>305020410</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85">
+        <v>403110410</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>305020400</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2739,16 +2736,16 @@
       <c r="B86" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C86" s="4">
-        <v>305020411</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="C86">
+        <v>403110411</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>305020400</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2759,16 +2756,16 @@
       <c r="B87" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C87" s="4">
-        <v>305020412</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87">
+        <v>403110412</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>305020400</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2779,16 +2776,16 @@
       <c r="B88" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C88" s="4">
-        <v>305020413</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="C88">
+        <v>403110413</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>305020400</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2799,16 +2796,16 @@
       <c r="B89" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C89" s="4">
-        <v>305020414</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89">
+        <v>403110414</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>305020400</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2819,16 +2816,16 @@
       <c r="B90" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C90" s="4">
-        <v>305020415</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="C90">
+        <v>403110415</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>305020400</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2839,16 +2836,16 @@
       <c r="B91" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C91" s="4">
-        <v>305020501</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C91">
+        <v>403110501</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>305020500</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2859,16 +2856,16 @@
       <c r="B92" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C92" s="4">
-        <v>305020502</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="C92">
+        <v>403110502</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>305020500</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2879,16 +2876,16 @@
       <c r="B93" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C93" s="4">
-        <v>305020503</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93">
+        <v>403110503</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>305020500</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2899,16 +2896,16 @@
       <c r="B94" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C94" s="4">
-        <v>305020504</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="C94">
+        <v>403110504</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>305020500</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2919,16 +2916,16 @@
       <c r="B95" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C95" s="4">
-        <v>305020505</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95">
+        <v>403110505</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>305020500</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2939,16 +2936,16 @@
       <c r="B96" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C96" s="4">
-        <v>305020506</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C96">
+        <v>403110506</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>305020500</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2959,16 +2956,16 @@
       <c r="B97" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C97" s="4">
-        <v>305020507</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="C97">
+        <v>403110507</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>305020500</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2979,16 +2976,16 @@
       <c r="B98" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C98" s="4">
-        <v>305020508</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C98">
+        <v>403110508</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>305020500</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2999,16 +2996,16 @@
       <c r="B99" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C99" s="4">
-        <v>305020509</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="C99">
+        <v>403110509</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>305020500</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3019,16 +3016,16 @@
       <c r="B100" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C100" s="4">
-        <v>305020510</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="C100">
+        <v>403110510</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>305020500</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3039,16 +3036,16 @@
       <c r="B101" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C101" s="4">
-        <v>305020511</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="C101">
+        <v>403110511</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>305020500</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3059,16 +3056,16 @@
       <c r="B102" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C102" s="4">
-        <v>305020512</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="C102">
+        <v>403110512</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>305020500</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3079,16 +3076,16 @@
       <c r="B103" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C103" s="4">
-        <v>305020601</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="C103">
+        <v>403110601</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>305020600</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3099,16 +3096,16 @@
       <c r="B104" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C104" s="4">
-        <v>305020602</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104">
+        <v>403110602</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>305020600</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3119,16 +3116,16 @@
       <c r="B105" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C105" s="4">
-        <v>305020603</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="C105">
+        <v>403110603</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>305020600</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3139,16 +3136,16 @@
       <c r="B106" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C106" s="4">
-        <v>305020604</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="C106">
+        <v>403110604</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>305020600</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3159,16 +3156,16 @@
       <c r="B107" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C107" s="4">
-        <v>305020605</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="C107">
+        <v>403110605</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>305020600</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3179,16 +3176,16 @@
       <c r="B108" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C108" s="4">
-        <v>305020701</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C108">
+        <v>403110701</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>305020700</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3199,16 +3196,16 @@
       <c r="B109" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C109" s="4">
-        <v>305020702</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C109">
+        <v>403110702</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>305020700</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3219,16 +3216,16 @@
       <c r="B110" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C110" s="4">
-        <v>305020703</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="C110">
+        <v>403110703</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>305020700</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3239,16 +3236,16 @@
       <c r="B111" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C111" s="4">
-        <v>305020704</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111">
+        <v>403110704</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>305020700</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3259,16 +3256,16 @@
       <c r="B112" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C112" s="4">
-        <v>305020705</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="C112">
+        <v>403110705</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>305020700</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3279,16 +3276,16 @@
       <c r="B113" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C113" s="4">
-        <v>305020706</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="C113">
+        <v>403110706</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>305020700</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3299,16 +3296,16 @@
       <c r="B114" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C114" s="4">
-        <v>305020707</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="C114">
+        <v>403110707</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>305020700</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3319,16 +3316,16 @@
       <c r="B115" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C115" s="4">
-        <v>305020708</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="C115">
+        <v>403110708</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>305020700</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3339,16 +3336,16 @@
       <c r="B116" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C116" s="4">
-        <v>305020709</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="C116">
+        <v>403110709</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>305020700</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3359,16 +3356,16 @@
       <c r="B117" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C117" s="4">
-        <v>305020710</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C117">
+        <v>403110710</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>305020700</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3379,16 +3376,16 @@
       <c r="B118" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C118" s="4">
-        <v>305020711</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="C118">
+        <v>403110711</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>305020700</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3399,16 +3396,16 @@
       <c r="B119" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C119" s="4">
-        <v>305020712</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="C119">
+        <v>403110712</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>305020700</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3419,16 +3416,16 @@
       <c r="B120" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C120" s="4">
-        <v>305020713</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="C120">
+        <v>403110713</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>305020700</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3439,16 +3436,16 @@
       <c r="B121" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C121" s="4">
-        <v>305020714</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="C121">
+        <v>403110714</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>305020700</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3459,16 +3456,16 @@
       <c r="B122" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C122" s="4">
-        <v>305020715</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="C122">
+        <v>403110715</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>305020700</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3479,16 +3476,16 @@
       <c r="B123" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C123" s="4">
-        <v>305020716</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="C123">
+        <v>403110716</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>305020700</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3499,16 +3496,16 @@
       <c r="B124" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C124" s="4">
-        <v>305020717</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="C124">
+        <v>403110717</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>305020700</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3519,16 +3516,16 @@
       <c r="B125" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C125" s="4">
-        <v>305020718</v>
-      </c>
-      <c r="D125" s="5" t="s">
+      <c r="C125">
+        <v>403110718</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>305020700</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3539,16 +3536,16 @@
       <c r="B126" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C126" s="4">
-        <v>305020719</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="C126">
+        <v>403110719</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>305020700</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3559,16 +3556,16 @@
       <c r="B127" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C127" s="4">
-        <v>305020720</v>
-      </c>
-      <c r="D127" s="5" t="s">
+      <c r="C127">
+        <v>403110720</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>305020700</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3579,16 +3576,16 @@
       <c r="B128" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C128" s="4">
-        <v>305020721</v>
-      </c>
-      <c r="D128" s="5" t="s">
+      <c r="C128">
+        <v>403110721</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>305020700</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3599,16 +3596,16 @@
       <c r="B129" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C129" s="4">
-        <v>305020722</v>
-      </c>
-      <c r="D129" s="5" t="s">
+      <c r="C129">
+        <v>403110722</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>305020700</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3619,16 +3616,16 @@
       <c r="B130" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C130" s="4">
-        <v>305020723</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="C130">
+        <v>403110723</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>305020700</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3639,16 +3636,16 @@
       <c r="B131" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C131" s="4">
-        <v>305020724</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="C131">
+        <v>403110724</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="5">
         <v>305020700</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3659,16 +3656,16 @@
       <c r="B132" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C132" s="4">
-        <v>305020725</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="C132">
+        <v>403110725</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="5">
         <v>305020700</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3679,16 +3676,16 @@
       <c r="B133" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C133" s="4">
-        <v>305020726</v>
-      </c>
-      <c r="D133" s="5" t="s">
+      <c r="C133">
+        <v>403110726</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>305020700</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3699,16 +3696,16 @@
       <c r="B134" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C134" s="4">
-        <v>305020727</v>
-      </c>
-      <c r="D134" s="5" t="s">
+      <c r="C134">
+        <v>403110727</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>305020700</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3719,16 +3716,16 @@
       <c r="B135" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C135" s="4">
-        <v>305020728</v>
-      </c>
-      <c r="D135" s="5" t="s">
+      <c r="C135">
+        <v>403110728</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>305020700</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3739,16 +3736,16 @@
       <c r="B136" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C136" s="4">
-        <v>305020729</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="C136">
+        <v>403110729</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>305020700</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3759,16 +3756,16 @@
       <c r="B137" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C137" s="4">
-        <v>305020730</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="C137">
+        <v>403110730</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="5">
         <v>305020700</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3779,16 +3776,16 @@
       <c r="B138" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C138" s="4">
-        <v>305020731</v>
-      </c>
-      <c r="D138" s="5" t="s">
+      <c r="C138">
+        <v>403110731</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="5">
         <v>305020700</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3799,16 +3796,16 @@
       <c r="B139" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C139" s="4">
-        <v>305020732</v>
-      </c>
-      <c r="D139" s="5" t="s">
+      <c r="C139">
+        <v>403110732</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="5">
         <v>305020700</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3819,16 +3816,16 @@
       <c r="B140" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C140" s="4">
-        <v>305020733</v>
-      </c>
-      <c r="D140" s="5" t="s">
+      <c r="C140">
+        <v>403110733</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="5">
         <v>305020700</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3839,16 +3836,16 @@
       <c r="B141" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C141" s="4">
-        <v>305020801</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141">
+        <v>403110801</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="5">
         <v>305020800</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3859,16 +3856,16 @@
       <c r="B142" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C142" s="4">
-        <v>305020802</v>
-      </c>
-      <c r="D142" s="5" t="s">
+      <c r="C142">
+        <v>403110802</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="5">
         <v>305020800</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3879,16 +3876,16 @@
       <c r="B143" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C143" s="4">
-        <v>305020803</v>
-      </c>
-      <c r="D143" s="5" t="s">
+      <c r="C143">
+        <v>403110803</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="5">
         <v>305020800</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3899,16 +3896,16 @@
       <c r="B144" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C144" s="4">
-        <v>305020804</v>
-      </c>
-      <c r="D144" s="5" t="s">
+      <c r="C144">
+        <v>403110804</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="5">
         <v>305020800</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3919,16 +3916,16 @@
       <c r="B145" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C145" s="4">
-        <v>305020805</v>
-      </c>
-      <c r="D145" s="5" t="s">
+      <c r="C145">
+        <v>403110805</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>305020800</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3939,16 +3936,16 @@
       <c r="B146" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C146" s="4">
-        <v>305020806</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="C146">
+        <v>403110806</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>305020800</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3959,16 +3956,16 @@
       <c r="B147" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C147" s="4">
-        <v>305020807</v>
-      </c>
-      <c r="D147" s="5" t="s">
+      <c r="C147">
+        <v>403110807</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>305020800</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3979,16 +3976,16 @@
       <c r="B148" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C148" s="4">
-        <v>305020808</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="C148">
+        <v>403110808</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>305020800</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3999,16 +3996,16 @@
       <c r="B149" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C149" s="4">
-        <v>305020809</v>
-      </c>
-      <c r="D149" s="5" t="s">
+      <c r="C149">
+        <v>403110809</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="5">
         <v>305020800</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4019,16 +4016,16 @@
       <c r="B150" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C150" s="4">
-        <v>305020901</v>
-      </c>
-      <c r="D150" s="5" t="s">
+      <c r="C150">
+        <v>403110901</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="5">
         <v>305020900</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4039,16 +4036,16 @@
       <c r="B151" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C151" s="4">
-        <v>305020902</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="C151">
+        <v>403110902</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="5">
         <v>305020900</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4059,16 +4056,16 @@
       <c r="B152" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C152" s="4">
-        <v>305020903</v>
-      </c>
-      <c r="D152" s="5" t="s">
+      <c r="C152">
+        <v>403110903</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>305020900</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4079,16 +4076,16 @@
       <c r="B153" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C153" s="4">
-        <v>305020904</v>
-      </c>
-      <c r="D153" s="5" t="s">
+      <c r="C153">
+        <v>403110904</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>305020900</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4099,16 +4096,16 @@
       <c r="B154" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C154" s="4">
-        <v>305020905</v>
-      </c>
-      <c r="D154" s="5" t="s">
+      <c r="C154">
+        <v>403110905</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>305020900</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F154" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4119,16 +4116,16 @@
       <c r="B155" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C155" s="4">
-        <v>305020906</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="C155">
+        <v>403110906</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="5">
         <v>305020900</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4139,16 +4136,16 @@
       <c r="B156" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C156" s="4">
-        <v>305020907</v>
-      </c>
-      <c r="D156" s="5" t="s">
+      <c r="C156">
+        <v>403110907</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="5">
         <v>305020900</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4159,16 +4156,16 @@
       <c r="B157" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C157" s="4">
-        <v>305020908</v>
-      </c>
-      <c r="D157" s="5" t="s">
+      <c r="C157">
+        <v>403110908</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="5">
         <v>305020900</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4179,16 +4176,16 @@
       <c r="B158" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C158" s="4">
-        <v>305020909</v>
-      </c>
-      <c r="D158" s="5" t="s">
+      <c r="C158">
+        <v>403110909</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>305020900</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4199,16 +4196,16 @@
       <c r="B159" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C159" s="4">
-        <v>305020910</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="C159">
+        <v>403110910</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>305020900</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4219,16 +4216,16 @@
       <c r="B160" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C160" s="4">
-        <v>305020911</v>
-      </c>
-      <c r="D160" s="5" t="s">
+      <c r="C160">
+        <v>403110911</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="5">
         <v>305020900</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4239,16 +4236,16 @@
       <c r="B161" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C161" s="4">
-        <v>305020912</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="C161">
+        <v>403110912</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="5">
         <v>305020900</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4259,16 +4256,16 @@
       <c r="B162" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C162" s="4">
-        <v>305020913</v>
-      </c>
-      <c r="D162" s="5" t="s">
+      <c r="C162">
+        <v>403110913</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="5">
         <v>305020900</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4279,16 +4276,16 @@
       <c r="B163" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C163" s="4">
-        <v>305020914</v>
-      </c>
-      <c r="D163" s="5" t="s">
+      <c r="C163">
+        <v>403110914</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>305020900</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4299,16 +4296,16 @@
       <c r="B164" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C164" s="4">
-        <v>305020915</v>
-      </c>
-      <c r="D164" s="5" t="s">
+      <c r="C164">
+        <v>403110915</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>305020900</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4319,16 +4316,16 @@
       <c r="B165" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C165" s="4">
-        <v>305020916</v>
-      </c>
-      <c r="D165" s="5" t="s">
+      <c r="C165">
+        <v>403110916</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="5">
         <v>305020900</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4339,16 +4336,16 @@
       <c r="B166" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C166" s="4">
-        <v>305021001</v>
-      </c>
-      <c r="D166" s="5" t="s">
+      <c r="C166">
+        <v>403111001</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="5">
         <v>305021000</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4359,16 +4356,16 @@
       <c r="B167" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C167" s="4">
-        <v>305021002</v>
-      </c>
-      <c r="D167" s="5" t="s">
+      <c r="C167">
+        <v>403111002</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="5">
         <v>305021000</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4379,16 +4376,16 @@
       <c r="B168" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C168" s="4">
-        <v>305021003</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="C168">
+        <v>403111003</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="5">
         <v>305021000</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4399,16 +4396,16 @@
       <c r="B169" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C169" s="4">
-        <v>305021004</v>
-      </c>
-      <c r="D169" s="5" t="s">
+      <c r="C169">
+        <v>403111004</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="5">
         <v>305021000</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4419,16 +4416,16 @@
       <c r="B170" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C170" s="4">
-        <v>305021005</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="C170">
+        <v>403111005</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="5">
         <v>305021000</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4439,16 +4436,16 @@
       <c r="B171" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C171" s="4">
-        <v>305021006</v>
-      </c>
-      <c r="D171" s="5" t="s">
+      <c r="C171">
+        <v>403111006</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="5">
         <v>305021000</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="F171" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4459,16 +4456,16 @@
       <c r="B172" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C172" s="4">
-        <v>305021007</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="C172">
+        <v>403111007</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="5">
         <v>305021000</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4479,16 +4476,16 @@
       <c r="B173" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C173" s="4">
-        <v>305021008</v>
-      </c>
-      <c r="D173" s="5" t="s">
+      <c r="C173">
+        <v>403111008</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="5">
         <v>305021000</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4499,16 +4496,16 @@
       <c r="B174" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C174" s="4">
-        <v>305021009</v>
-      </c>
-      <c r="D174" s="5" t="s">
+      <c r="C174">
+        <v>403111009</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="5">
         <v>305021000</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F174" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4519,16 +4516,16 @@
       <c r="B175" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C175" s="4">
-        <v>305021010</v>
-      </c>
-      <c r="D175" s="5" t="s">
+      <c r="C175">
+        <v>403111010</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="5">
         <v>305021000</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F175" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4539,16 +4536,16 @@
       <c r="B176" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C176" s="4">
-        <v>305021011</v>
-      </c>
-      <c r="D176" s="5" t="s">
+      <c r="C176">
+        <v>403111011</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="5">
         <v>305021000</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4559,16 +4556,16 @@
       <c r="B177" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C177" s="4">
-        <v>305021012</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="C177">
+        <v>403111012</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="5">
         <v>305021000</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4579,16 +4576,16 @@
       <c r="B178" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C178" s="4">
-        <v>305021013</v>
-      </c>
-      <c r="D178" s="5" t="s">
+      <c r="C178">
+        <v>403111013</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="5">
         <v>305021000</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F178" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4599,16 +4596,16 @@
       <c r="B179" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C179" s="4">
-        <v>305021014</v>
-      </c>
-      <c r="D179" s="5" t="s">
+      <c r="C179">
+        <v>403111014</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="5">
         <v>305021000</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4619,16 +4616,16 @@
       <c r="B180" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C180" s="4">
-        <v>305021015</v>
-      </c>
-      <c r="D180" s="5" t="s">
+      <c r="C180">
+        <v>403111015</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="5">
         <v>305021000</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4639,16 +4636,16 @@
       <c r="B181" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C181" s="4">
-        <v>305021016</v>
-      </c>
-      <c r="D181" s="5" t="s">
+      <c r="C181">
+        <v>403111016</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="5">
         <v>305021000</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F181" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4659,16 +4656,16 @@
       <c r="B182" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C182" s="4">
-        <v>305021017</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="C182">
+        <v>403111017</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="5">
         <v>305021000</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4679,16 +4676,16 @@
       <c r="B183" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C183" s="4">
-        <v>305021018</v>
-      </c>
-      <c r="D183" s="5" t="s">
+      <c r="C183">
+        <v>403111018</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="5">
         <v>305021000</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4699,16 +4696,16 @@
       <c r="B184" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C184" s="4">
-        <v>305021019</v>
-      </c>
-      <c r="D184" s="5" t="s">
+      <c r="C184">
+        <v>403111019</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="5">
         <v>305021000</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="F184" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4719,16 +4716,16 @@
       <c r="B185" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C185" s="4">
-        <v>305021020</v>
-      </c>
-      <c r="D185" s="5" t="s">
+      <c r="C185">
+        <v>403111020</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E185" s="5">
         <v>305021000</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4739,16 +4736,16 @@
       <c r="B186" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C186" s="4">
-        <v>305021021</v>
-      </c>
-      <c r="D186" s="5" t="s">
+      <c r="C186">
+        <v>403111021</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="5">
         <v>305021000</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4759,16 +4756,16 @@
       <c r="B187" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C187" s="4">
-        <v>305021022</v>
-      </c>
-      <c r="D187" s="5" t="s">
+      <c r="C187">
+        <v>403111022</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="5">
         <v>305021000</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F187" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4779,16 +4776,16 @@
       <c r="B188" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C188" s="4">
-        <v>305021023</v>
-      </c>
-      <c r="D188" s="5" t="s">
+      <c r="C188">
+        <v>403111023</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="5">
         <v>305021000</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4799,16 +4796,16 @@
       <c r="B189" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C189" s="4">
-        <v>305021024</v>
-      </c>
-      <c r="D189" s="5" t="s">
+      <c r="C189">
+        <v>403111024</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="5">
         <v>305021000</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F189" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4819,16 +4816,16 @@
       <c r="B190" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C190" s="4">
-        <v>305021025</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="C190">
+        <v>403111025</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="5">
         <v>305021000</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F190" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4839,16 +4836,16 @@
       <c r="B191" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C191" s="4">
-        <v>305021026</v>
-      </c>
-      <c r="D191" s="5" t="s">
+      <c r="C191">
+        <v>403111026</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="5">
         <v>305021000</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F191" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4859,16 +4856,16 @@
       <c r="B192" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C192" s="4">
-        <v>305021027</v>
-      </c>
-      <c r="D192" s="5" t="s">
+      <c r="C192">
+        <v>403111027</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="5">
         <v>305021000</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4879,16 +4876,16 @@
       <c r="B193" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C193" s="4">
-        <v>305021028</v>
-      </c>
-      <c r="D193" s="5" t="s">
+      <c r="C193">
+        <v>403111028</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="5">
         <v>305021000</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F193" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4899,16 +4896,16 @@
       <c r="B194" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C194" s="4">
-        <v>305021029</v>
-      </c>
-      <c r="D194" s="5" t="s">
+      <c r="C194">
+        <v>403111029</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="5">
         <v>305021000</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4919,16 +4916,16 @@
       <c r="B195" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C195" s="4">
-        <v>305021030</v>
-      </c>
-      <c r="D195" s="5" t="s">
+      <c r="C195">
+        <v>403111030</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="5">
         <v>305021000</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4939,16 +4936,16 @@
       <c r="B196" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C196" s="4">
-        <v>305021031</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="C196">
+        <v>403111031</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="5">
         <v>305021000</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="F196" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4959,16 +4956,16 @@
       <c r="B197" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C197" s="4">
-        <v>305021032</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="C197">
+        <v>403111032</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="5">
         <v>305021000</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4979,16 +4976,16 @@
       <c r="B198" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C198" s="4">
-        <v>305021033</v>
-      </c>
-      <c r="D198" s="5" t="s">
+      <c r="C198">
+        <v>403111033</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="5">
         <v>305021000</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4999,16 +4996,16 @@
       <c r="B199" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C199" s="4">
-        <v>305021034</v>
-      </c>
-      <c r="D199" s="5" t="s">
+      <c r="C199">
+        <v>403111034</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="5">
         <v>305021000</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F199" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5019,16 +5016,16 @@
       <c r="B200" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C200" s="4">
-        <v>305021035</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="C200">
+        <v>403111035</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="5">
         <v>305021000</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5039,16 +5036,16 @@
       <c r="B201" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C201" s="4">
-        <v>305021036</v>
-      </c>
-      <c r="D201" s="5" t="s">
+      <c r="C201">
+        <v>403111036</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="5">
         <v>305021000</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F201" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5059,16 +5056,16 @@
       <c r="B202" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C202" s="4">
-        <v>305021037</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="C202">
+        <v>403111037</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="5">
         <v>305021000</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5079,16 +5076,16 @@
       <c r="B203" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C203" s="4">
-        <v>305021038</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="C203">
+        <v>403111038</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="5">
         <v>305021000</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5099,16 +5096,16 @@
       <c r="B204" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C204" s="4">
-        <v>305021039</v>
-      </c>
-      <c r="D204" s="5" t="s">
+      <c r="C204">
+        <v>403111039</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="5">
         <v>305021000</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="F204" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5119,16 +5116,16 @@
       <c r="B205" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C205" s="4">
-        <v>305021040</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="C205">
+        <v>403111040</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="5">
         <v>305021000</v>
       </c>
-      <c r="F205" s="7" t="s">
+      <c r="F205" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5139,16 +5136,16 @@
       <c r="B206" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C206" s="4">
-        <v>305021041</v>
-      </c>
-      <c r="D206" s="5" t="s">
+      <c r="C206">
+        <v>403111041</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="5">
         <v>305021000</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5159,16 +5156,16 @@
       <c r="B207" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C207" s="4">
-        <v>305021042</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="C207">
+        <v>403111042</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="5">
         <v>305021000</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F207" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5179,16 +5176,16 @@
       <c r="B208" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C208" s="4">
-        <v>305021043</v>
-      </c>
-      <c r="D208" s="5" t="s">
+      <c r="C208">
+        <v>403111043</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="5">
         <v>305021000</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5199,16 +5196,16 @@
       <c r="B209" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C209" s="4">
-        <v>305021044</v>
-      </c>
-      <c r="D209" s="5" t="s">
+      <c r="C209">
+        <v>403111044</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="5">
         <v>305021000</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5219,16 +5216,16 @@
       <c r="B210" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C210" s="4">
-        <v>305021045</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="C210">
+        <v>403111045</v>
+      </c>
+      <c r="D210" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="5">
         <v>305021000</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="F210" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5239,16 +5236,16 @@
       <c r="B211" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C211" s="4">
-        <v>305021046</v>
-      </c>
-      <c r="D211" s="5" t="s">
+      <c r="C211">
+        <v>403111046</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E211" s="6">
+      <c r="E211" s="5">
         <v>305021000</v>
       </c>
-      <c r="F211" s="7" t="s">
+      <c r="F211" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5259,16 +5256,16 @@
       <c r="B212" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C212" s="4">
-        <v>305021047</v>
-      </c>
-      <c r="D212" s="5" t="s">
+      <c r="C212">
+        <v>403111047</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="5">
         <v>305021000</v>
       </c>
-      <c r="F212" s="7" t="s">
+      <c r="F212" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5279,16 +5276,16 @@
       <c r="B213" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C213" s="4">
-        <v>305021048</v>
-      </c>
-      <c r="D213" s="5" t="s">
+      <c r="C213">
+        <v>403111048</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="5">
         <v>305021000</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="F213" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5299,16 +5296,16 @@
       <c r="B214" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C214" s="4">
-        <v>305021049</v>
-      </c>
-      <c r="D214" s="5" t="s">
+      <c r="C214">
+        <v>403111049</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="5">
         <v>305021000</v>
       </c>
-      <c r="F214" s="7" t="s">
+      <c r="F214" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5319,16 +5316,16 @@
       <c r="B215" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C215" s="4">
-        <v>305021101</v>
-      </c>
-      <c r="D215" s="5" t="s">
+      <c r="C215">
+        <v>403111101</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="5">
         <v>305021100</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5339,16 +5336,16 @@
       <c r="B216" s="3">
         <v>2040000000</v>
       </c>
-      <c r="C216" s="4">
-        <v>305021201</v>
-      </c>
-      <c r="D216" s="5" t="s">
+      <c r="C216">
+        <v>403111201</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="5">
         <v>305021200</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="F216" s="6" t="s">
         <v>199</v>
       </c>
     </row>
